--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-docker/bin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6729661B-36CD-4647-BC90-917C36503604}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B599116-3D16-3040-8C6E-CA8FEAC48CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -900,10 +900,10 @@
     <t>caseworker-befta_jurisdiction_2</t>
   </si>
   <si>
-    <t>befta_caseworker2@beftajurisdiction2.gmail.com</t>
-  </si>
-  <si>
-    <t>befta_citizen2@beftajurisdiction2.gmail.com</t>
+    <t>befta_caseworker_2@gmail.com</t>
+  </si>
+  <si>
+    <t>befta_citizen_2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1156,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -3354,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3454,10 +3454,6 @@
       <c r="F7" s="24"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{A0700AB8-CED9-EC46-B186-B8BA9D80CD78}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
@@ -3472,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-docker/bin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B599116-3D16-3040-8C6E-CA8FEAC48CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,10 +900,10 @@
     <t>caseworker-befta_jurisdiction_2</t>
   </si>
   <si>
-    <t>befta_caseworker_2@gmail.com</t>
-  </si>
-  <si>
-    <t>befta_citizen_2@gmail.com</t>
+    <t>befta.caseworker.2@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.citizen.2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3454,6 +3454,10 @@
       <c r="F7" s="24"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{A27CCE11-3A76-8946-A93B-9CBC3432215F}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F8C67D-A42D-774C-A18F-76AEBEF7844D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="282">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -904,6 +904,9 @@
   </si>
   <si>
     <t>befta.citizen.2@gmail.com</t>
+  </si>
+  <si>
+    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -3354,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3473,7 +3476,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3557,7 +3560,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>58</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3576,7 +3579,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3710,8 +3713,8 @@
       <c r="E7" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>123</v>
+      <c r="F7" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3728,8 +3731,8 @@
       <c r="E8" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>123</v>
+      <c r="F8" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3746,8 +3749,8 @@
       <c r="E9" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>123</v>
+      <c r="F9" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3769,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3945,8 +3948,8 @@
       <c r="E10" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>123</v>
+      <c r="F10" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3962,8 +3965,8 @@
       <c r="E11" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>123</v>
+      <c r="F11" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3979,8 +3982,8 @@
       <c r="E12" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>123</v>
+      <c r="F12" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3996,8 +3999,8 @@
       <c r="E13" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>123</v>
+      <c r="F13" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4013,8 +4016,8 @@
       <c r="E14" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>123</v>
+      <c r="F14" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4030,8 +4033,8 @@
       <c r="E15" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>123</v>
+      <c r="F15" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -4049,8 +4052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4418,7 +4421,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4435,7 +4438,7 @@
         <v>270</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4452,7 +4455,7 @@
         <v>270</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4469,7 +4472,7 @@
         <v>270</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4486,7 +4489,7 @@
         <v>270</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4503,7 +4506,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4520,7 +4523,7 @@
         <v>270</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4537,7 +4540,7 @@
         <v>270</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,7 +4557,7 @@
         <v>270</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,7 +4574,7 @@
         <v>270</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4588,7 +4591,7 @@
         <v>270</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4605,7 +4608,7 @@
         <v>270</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4622,7 +4625,7 @@
         <v>270</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4639,7 +4642,7 @@
         <v>270</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4656,7 +4659,7 @@
         <v>270</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4673,7 +4676,7 @@
         <v>270</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>123</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F8C67D-A42D-774C-A18F-76AEBEF7844D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="281">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -904,9 +904,6 @@
   </si>
   <si>
     <t>befta.citizen.2@gmail.com</t>
-  </si>
-  <si>
-    <t>CR</t>
   </si>
 </sst>
 </file>
@@ -3357,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3476,7 +3473,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3560,7 +3557,7 @@
         <v>270</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>281</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3579,7 +3576,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3713,8 +3710,8 @@
       <c r="E7" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>281</v>
+      <c r="F7" s="73" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3731,8 +3728,8 @@
       <c r="E8" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>281</v>
+      <c r="F8" s="73" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
@@ -3749,8 +3746,8 @@
       <c r="E9" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>281</v>
+      <c r="F9" s="73" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3769,7 +3766,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3948,8 +3945,8 @@
       <c r="E10" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>281</v>
+      <c r="F10" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3965,8 +3962,8 @@
       <c r="E11" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>281</v>
+      <c r="F11" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3982,8 +3979,8 @@
       <c r="E12" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>281</v>
+      <c r="F12" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3999,8 +3996,8 @@
       <c r="E13" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>281</v>
+      <c r="F13" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4016,8 +4013,8 @@
       <c r="E14" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F14" s="14" t="s">
-        <v>281</v>
+      <c r="F14" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4033,8 +4030,8 @@
       <c r="E15" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>281</v>
+      <c r="F15" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4052,8 +4049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4421,7 +4418,7 @@
         <v>270</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4438,7 +4435,7 @@
         <v>270</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4455,7 +4452,7 @@
         <v>270</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4472,7 +4469,7 @@
         <v>270</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,7 +4486,7 @@
         <v>270</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4506,7 +4503,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4523,7 +4520,7 @@
         <v>270</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4540,7 +4537,7 @@
         <v>270</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4557,7 +4554,7 @@
         <v>270</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4574,7 +4571,7 @@
         <v>270</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4591,7 +4588,7 @@
         <v>270</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4608,7 +4605,7 @@
         <v>270</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4625,7 +4622,7 @@
         <v>270</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4642,7 +4639,7 @@
         <v>270</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4659,7 +4656,7 @@
         <v>270</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4676,7 +4673,7 @@
         <v>270</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>281</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABC951-1B27-064C-9CA5-55532B41E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="309">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -787,15 +787,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>DocumentField</t>
-  </si>
-  <si>
-    <t>A `Document` field</t>
-  </si>
-  <si>
-    <t>A document</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -904,6 +895,99 @@
   </si>
   <si>
     <t>befta.citizen.2@gmail.com</t>
+  </si>
+  <si>
+    <t>DocumentField1</t>
+  </si>
+  <si>
+    <t>DocumentField2</t>
+  </si>
+  <si>
+    <t>DocumentField3</t>
+  </si>
+  <si>
+    <t>DocumentField4</t>
+  </si>
+  <si>
+    <t>DocumentField5</t>
+  </si>
+  <si>
+    <t>DocumentField6</t>
+  </si>
+  <si>
+    <t>DocumentField7</t>
+  </si>
+  <si>
+    <t>A document 1</t>
+  </si>
+  <si>
+    <t>A document 2</t>
+  </si>
+  <si>
+    <t>A document 3</t>
+  </si>
+  <si>
+    <t>A document 4</t>
+  </si>
+  <si>
+    <t>A document 5</t>
+  </si>
+  <si>
+    <t>A document 6</t>
+  </si>
+  <si>
+    <t>A document 7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>A `Document` 1 field</t>
+  </si>
+  <si>
+    <t>A `Document` 2 field</t>
+  </si>
+  <si>
+    <t>A `Document` 3 field</t>
+  </si>
+  <si>
+    <t>A `Document` 4 field</t>
+  </si>
+  <si>
+    <t>A `Document` 5 field</t>
+  </si>
+  <si>
+    <t>A `Document` 6 field</t>
+  </si>
+  <si>
+    <t>A `Document`7 field</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_1</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_2</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.1@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1850,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,13 +1913,13 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +2017,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -1951,7 +2035,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>144</v>
@@ -1969,7 +2053,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>133</v>
@@ -1987,7 +2071,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>144</v>
@@ -2018,7 +2102,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0900-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D7</xm:sqref>
         </x14:dataValidation>
@@ -2036,7 +2120,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2108,7 +2192,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
@@ -2126,7 +2210,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -2157,7 +2241,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>
@@ -2172,17 +2256,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -2246,7 +2330,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -2258,69 +2342,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>42736</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="23"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B7" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2331,9 +2386,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0B00-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D7</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2346,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C35"/>
+      <selection activeCell="H19" sqref="C19:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2443,7 +2498,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
@@ -2470,7 +2525,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>55</v>
@@ -2497,7 +2552,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>55</v>
@@ -2524,7 +2579,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>55</v>
@@ -2551,7 +2606,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>55</v>
@@ -2578,7 +2633,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>55</v>
@@ -2605,7 +2660,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>55</v>
@@ -2632,7 +2687,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>55</v>
@@ -2659,7 +2714,7 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>55</v>
@@ -2686,7 +2741,7 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>55</v>
@@ -2713,7 +2768,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>55</v>
@@ -2728,7 +2783,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I14" s="28">
         <v>6</v>
@@ -2740,7 +2795,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>55</v>
@@ -2767,7 +2822,7 @@
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>55</v>
@@ -2794,7 +2849,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>55</v>
@@ -2821,7 +2876,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>55</v>
@@ -2848,7 +2903,7 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>55</v>
@@ -2863,7 +2918,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="I19" s="28">
         <v>4</v>
@@ -2875,25 +2930,25 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G20" s="28">
+        <v>3</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="28">
         <v>4</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,25 +2957,25 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="I21" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,25 +2984,25 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="I22" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,25 +3011,25 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="I23" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,22 +3038,22 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="I24" s="28">
         <v>4</v>
@@ -3010,25 +3065,25 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G25" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="I25" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,22 +3092,22 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="G26" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="I26" s="28">
         <v>1</v>
@@ -3064,25 +3119,25 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="28">
-        <v>2</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="I27" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,25 +3146,25 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G28" s="28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="28">
         <v>2</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,25 +3173,25 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="28">
-        <v>2</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="I29" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,25 +3200,25 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="I30" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,25 +3227,25 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G31" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="I31" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3254,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>55</v>
@@ -3214,10 +3269,10 @@
         <v>2</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I32" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,25 +3281,25 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G33" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="I33" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,25 +3308,25 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28">
+        <v>2</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="28">
         <v>3</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,25 +3335,25 @@
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G35" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="I35" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,36 +3362,198 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="G36" s="28">
+        <v>2</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="28">
+        <v>2</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="28">
+        <v>3</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="28">
+        <v>3</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="28">
+        <v>3</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="28">
         <v>4</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="28">
+      <c r="H42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G36 I4:I36" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G42 I4:I42" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3352,10 +3569,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3408,13 +3625,13 @@
         <v>42736</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>183</v>
@@ -3424,39 +3641,69 @@
       <c r="A5" s="71">
         <v>42736</v>
       </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="72" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="71"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A27CCE11-3A76-8946-A93B-9CBC3432215F}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{7A87C9B7-5777-4145-9A50-F8A893972F50}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{977DB4FA-BE1F-B549-823A-29002CF2981B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3470,10 +3717,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3536,12 +3783,12 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3551,13 +3798,43 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3573,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3585,7 +3862,7 @@
     <col min="2" max="2" width="15.5" style="60" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" style="60" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="27" style="60" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="60" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="60" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="53"/>
   </cols>
@@ -3648,13 +3925,13 @@
       </c>
       <c r="B4" s="52"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>123</v>
@@ -3666,13 +3943,13 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>123</v>
@@ -3684,13 +3961,13 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>123</v>
@@ -3702,13 +3979,13 @@
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>270</v>
+      <c r="E7" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>123</v>
@@ -3720,13 +3997,13 @@
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>270</v>
+      <c r="E8" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>123</v>
@@ -3738,15 +4015,123 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>270</v>
+      <c r="E9" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F9" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="73" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3763,10 +4148,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E22" sqref="E22:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3775,7 +4160,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3835,13 +4220,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -3852,13 +4237,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -3869,13 +4254,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -3886,13 +4271,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -3903,13 +4288,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -3920,13 +4305,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -3937,13 +4322,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>270</v>
+      <c r="E10" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -3954,13 +4339,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>270</v>
+      <c r="E11" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -3971,13 +4356,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>270</v>
+      <c r="E12" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -3988,13 +4373,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>270</v>
+      <c r="E13" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4005,13 +4390,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>270</v>
+      <c r="E14" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4022,15 +4407,219 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>270</v>
+      <c r="E15" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4047,10 +4636,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4118,13 +4707,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -4135,13 +4724,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -4152,13 +4741,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -4169,13 +4758,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -4186,13 +4775,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -4203,13 +4792,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -4220,13 +4809,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -4237,13 +4826,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -4254,13 +4843,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -4271,13 +4860,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4288,13 +4877,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4305,13 +4894,13 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
@@ -4323,13 +4912,13 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>123</v>
@@ -4340,34 +4929,33 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>42736</v>
       </c>
-      <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4375,16 +4963,16 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4392,16 +4980,16 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4409,16 +4997,16 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="F21" s="24" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4426,16 +5014,16 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="F22" s="24" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4443,32 +5031,33 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>270</v>
-      </c>
       <c r="F23" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71">
         <v>42736</v>
       </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4477,13 +5066,13 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -4494,13 +5083,13 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>270</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -4511,13 +5100,13 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>123</v>
@@ -4528,13 +5117,13 @@
         <v>42736</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>123</v>
@@ -4545,13 +5134,13 @@
         <v>42736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
@@ -4562,13 +5151,13 @@
         <v>42736</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>270</v>
+        <v>142</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>123</v>
@@ -4579,13 +5168,13 @@
         <v>42736</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>270</v>
+        <v>144</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>123</v>
@@ -4596,13 +5185,13 @@
         <v>42736</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>123</v>
@@ -4613,13 +5202,13 @@
         <v>42736</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>270</v>
+        <v>156</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>123</v>
@@ -4630,13 +5219,13 @@
         <v>42736</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F34" s="24" t="s">
         <v>123</v>
@@ -4647,13 +5236,13 @@
         <v>42736</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>270</v>
+        <v>154</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F35" s="24" t="s">
         <v>123</v>
@@ -4664,15 +5253,899 @@
         <v>42736</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>270</v>
+        <v>158</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4689,10 +6162,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4702,14 +6175,14 @@
     <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="80" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>1</v>
@@ -4728,19 +6201,19 @@
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4771,7 +6244,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>223</v>
@@ -4780,7 +6253,7 @@
         <v>213</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>123</v>
@@ -4791,7 +6264,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>223</v>
@@ -4800,7 +6273,7 @@
         <v>215</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>123</v>
@@ -4811,7 +6284,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>223</v>
@@ -4820,9 +6293,129 @@
         <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G6" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="80" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4836,7 +6429,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4931,16 +6524,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -4952,16 +6545,16 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>116</v>
@@ -4988,10 +6581,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="E2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5109,7 +6702,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -5138,7 +6731,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
@@ -5167,7 +6760,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
@@ -5196,7 +6789,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
@@ -5225,7 +6818,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
@@ -5254,7 +6847,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
@@ -5283,7 +6876,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
@@ -5312,7 +6905,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
@@ -5341,7 +6934,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
@@ -5370,7 +6963,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
@@ -5401,7 +6994,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
@@ -5432,7 +7025,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>232</v>
@@ -5463,7 +7056,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>223</v>
@@ -5492,7 +7085,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>235</v>
@@ -5521,19 +7114,19 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>243</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="28" t="s">
@@ -5550,23 +7143,21 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H19" s="41"/>
       <c r="I19" s="28" t="s">
         <v>25</v>
       </c>
@@ -5581,19 +7172,19 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>261</v>
+        <v>287</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="28" t="s">
@@ -5610,21 +7201,21 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="41"/>
       <c r="I21" s="28" t="s">
         <v>25</v>
       </c>
@@ -5639,21 +7230,21 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="41"/>
       <c r="I22" s="28" t="s">
         <v>25</v>
       </c>
@@ -5668,21 +7259,21 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>139</v>
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H23" s="41"/>
       <c r="I23" s="28" t="s">
         <v>25</v>
       </c>
@@ -5697,21 +7288,21 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H24" s="41"/>
       <c r="I24" s="28" t="s">
         <v>25</v>
       </c>
@@ -5726,21 +7317,23 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="28"/>
+        <v>247</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="I25" s="28" t="s">
         <v>25</v>
       </c>
@@ -5755,21 +7348,21 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="28"/>
+        <v>257</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="41"/>
       <c r="I26" s="28" t="s">
         <v>25</v>
       </c>
@@ -5784,19 +7377,19 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28" t="s">
@@ -5813,19 +7406,19 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>242</v>
+        <v>272</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
@@ -5842,19 +7435,19 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>157</v>
+        <v>272</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -5871,23 +7464,21 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H30" s="28"/>
       <c r="I30" s="28" t="s">
         <v>25</v>
       </c>
@@ -5902,23 +7493,21 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H31" s="28"/>
       <c r="I31" s="28" t="s">
         <v>25</v>
       </c>
@@ -5933,23 +7522,21 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>24</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H32" s="28"/>
       <c r="I32" s="28" t="s">
         <v>25</v>
       </c>
@@ -5964,21 +7551,21 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="28"/>
       <c r="I33" s="28" t="s">
         <v>25</v>
       </c>
@@ -5993,21 +7580,21 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="41"/>
+        <v>242</v>
+      </c>
+      <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
         <v>25</v>
       </c>
@@ -6022,23 +7609,21 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
         <v>25</v>
       </c>
@@ -6053,21 +7638,23 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>160</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="I36" s="28" t="s">
         <v>25</v>
       </c>
@@ -6076,12 +7663,192 @@
         <v>116</v>
       </c>
     </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6100,7 +7867,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6282,13 +8049,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,13 +8064,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>254</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,13 +8079,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +8110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -6636,7 +8403,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6709,7 +8476,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
@@ -6728,7 +8495,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
@@ -6747,7 +8514,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
@@ -6766,7 +8533,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
@@ -6785,7 +8552,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
@@ -6804,7 +8571,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
@@ -6844,7 +8611,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6995,7 +8762,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7024,7 +8791,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
@@ -7061,7 +8828,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
@@ -7098,7 +8865,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
@@ -7135,7 +8902,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
@@ -7172,7 +8939,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
@@ -7209,7 +8976,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7244,7 +9011,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
@@ -7281,7 +9048,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
@@ -7318,7 +9085,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
@@ -7355,7 +9122,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
@@ -7392,7 +9159,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
@@ -7447,10 +9214,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7588,7 +9355,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7625,7 +9392,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>188</v>
@@ -7662,7 +9429,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>188</v>
@@ -7699,7 +9466,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>188</v>
@@ -7736,7 +9503,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>188</v>
@@ -7773,7 +9540,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>188</v>
@@ -7810,7 +9577,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7847,7 +9614,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>188</v>
@@ -7884,7 +9651,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>188</v>
@@ -7921,7 +9688,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>188</v>
@@ -7958,13 +9725,13 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F14" s="28">
         <v>6</v>
@@ -7995,7 +9762,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>188</v>
@@ -8032,7 +9799,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>188</v>
@@ -8069,7 +9836,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>188</v>
@@ -8106,7 +9873,7 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>188</v>
@@ -8143,13 +9910,13 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="F19" s="28">
         <v>4</v>
@@ -8180,16 +9947,16 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="F20" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="41" t="s">
@@ -8199,13 +9966,13 @@
         <v>199</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>72</v>
@@ -8217,16 +9984,16 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="F21" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="41" t="s">
@@ -8236,13 +10003,13 @@
         <v>199</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L21" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="24" t="s">
         <v>72</v>
@@ -8254,16 +10021,16 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="F22" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="41" t="s">
@@ -8273,13 +10040,13 @@
         <v>199</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L22" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>72</v>
@@ -8291,13 +10058,13 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="F23" s="28">
         <v>4</v>
@@ -8310,13 +10077,13 @@
         <v>199</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L23" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>72</v>
@@ -8328,16 +10095,16 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="F24" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="41" t="s">
@@ -8347,13 +10114,13 @@
         <v>199</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L24" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>72</v>
@@ -8365,16 +10132,16 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="F25" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41" t="s">
@@ -8384,13 +10151,13 @@
         <v>199</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>72</v>
@@ -8402,16 +10169,16 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>156</v>
+      <c r="E26" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="41" t="s">
@@ -8421,13 +10188,13 @@
         <v>199</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>72</v>
@@ -8439,16 +10206,16 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>239</v>
+      <c r="E27" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F27" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="41" t="s">
@@ -8458,13 +10225,13 @@
         <v>199</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
         <v>72</v>
@@ -8476,16 +10243,16 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>154</v>
+      <c r="E28" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F28" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="41" t="s">
@@ -8495,13 +10262,13 @@
         <v>199</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="24" t="s">
         <v>72</v>
@@ -8513,16 +10280,16 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F29" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="41" t="s">
@@ -8532,13 +10299,13 @@
         <v>199</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L29" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="24" t="s">
         <v>72</v>
@@ -8550,16 +10317,16 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F30" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="41" t="s">
@@ -8569,13 +10336,13 @@
         <v>199</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L30" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>72</v>
@@ -8587,13 +10354,13 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="F31" s="28">
         <v>1</v>
@@ -8606,16 +10373,16 @@
         <v>199</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L31" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8624,13 +10391,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
@@ -8643,16 +10410,16 @@
         <v>199</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8661,13 +10428,13 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F33" s="28">
         <v>3</v>
@@ -8680,16 +10447,16 @@
         <v>199</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8698,13 +10465,13 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
@@ -8717,13 +10484,13 @@
         <v>199</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L34" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="24" t="s">
         <v>72</v>
@@ -8735,35 +10502,35 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
-        <v>72</v>
+      <c r="H35" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8772,35 +10539,35 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F36" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28" t="s">
-        <v>72</v>
+      <c r="H36" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L36" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8809,32 +10576,32 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F37" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28" t="s">
-        <v>72</v>
+      <c r="H37" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L37" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>25</v>
@@ -8846,32 +10613,32 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="F38" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28" t="s">
-        <v>72</v>
+      <c r="H38" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L38" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="24" t="s">
         <v>25</v>
@@ -8883,32 +10650,32 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F39" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
-        <v>72</v>
+      <c r="H39" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L39" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" s="24" t="s">
         <v>25</v>
@@ -8920,35 +10687,35 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="F40" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28" t="s">
-        <v>72</v>
+      <c r="H40" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L40" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8957,35 +10724,35 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F41" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28" t="s">
-        <v>72</v>
+      <c r="H41" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L41" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8994,35 +10761,35 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="F42" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
-        <v>72</v>
+      <c r="H42" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L42" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9031,35 +10798,35 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="F43" s="28">
         <v>4</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="28" t="s">
-        <v>72</v>
+      <c r="H43" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L43" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9068,35 +10835,35 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F44" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28" t="s">
-        <v>72</v>
+      <c r="H44" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L44" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9105,35 +10872,35 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F45" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="28" t="s">
-        <v>72</v>
+      <c r="H45" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9142,20 +10909,20 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F46" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
-        <v>72</v>
+      <c r="H46" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>199</v>
@@ -9170,7 +10937,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9179,16 +10946,16 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="41" t="s">
-        <v>232</v>
+      <c r="E47" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F47" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28" t="s">
@@ -9198,13 +10965,13 @@
         <v>199</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L47" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" s="24" t="s">
         <v>25</v>
@@ -9216,16 +10983,16 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>235</v>
+      <c r="E48" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F48" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28" t="s">
@@ -9235,13 +11002,13 @@
         <v>199</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L48" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48" s="24" t="s">
         <v>25</v>
@@ -9253,20 +11020,20 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F49" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="41" t="s">
-        <v>25</v>
+      <c r="H49" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>199</v>
@@ -9281,7 +11048,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9290,20 +11057,20 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F50" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="41" t="s">
-        <v>25</v>
+      <c r="H50" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>199</v>
@@ -9318,7 +11085,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9327,20 +11094,20 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>137</v>
+        <v>204</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F51" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="41" t="s">
-        <v>25</v>
+      <c r="H51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>199</v>
@@ -9355,7 +11122,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9364,35 +11131,35 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F52" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="41" t="s">
-        <v>25</v>
+      <c r="H52" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L52" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9401,35 +11168,35 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F53" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="41" t="s">
-        <v>25</v>
+      <c r="H53" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9438,20 +11205,20 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F54" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="41" t="s">
-        <v>25</v>
+      <c r="H54" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>199</v>
@@ -9466,7 +11233,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9475,20 +11242,20 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F55" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="41" t="s">
-        <v>25</v>
+      <c r="H55" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>199</v>
@@ -9503,7 +11270,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9512,20 +11279,20 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F56" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="41" t="s">
-        <v>25</v>
+      <c r="H56" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>199</v>
@@ -9540,7 +11307,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9549,20 +11316,20 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F57" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="41" t="s">
-        <v>25</v>
+      <c r="H57" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>199</v>
@@ -9577,7 +11344,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9586,35 +11353,35 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F58" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="41" t="s">
-        <v>25</v>
+      <c r="H58" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L58" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9623,35 +11390,35 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F59" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" s="28"/>
-      <c r="H59" s="41" t="s">
-        <v>25</v>
+      <c r="H59" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L59" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9660,35 +11427,35 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="F60" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G60" s="28"/>
-      <c r="H60" s="41" t="s">
-        <v>25</v>
+      <c r="H60" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L60" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,13 +11464,13 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>223</v>
+      <c r="E61" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F61" s="28">
         <v>1</v>
@@ -9716,16 +11483,16 @@
         <v>199</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L61" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9734,13 +11501,13 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>232</v>
+      <c r="E62" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F62" s="28">
         <v>2</v>
@@ -9753,16 +11520,16 @@
         <v>199</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L62" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9771,13 +11538,13 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="41" t="s">
-        <v>235</v>
+      <c r="E63" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F63" s="28">
         <v>3</v>
@@ -9790,16 +11557,16 @@
         <v>199</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L63" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9808,16 +11575,16 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F64" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="41" t="s">
@@ -9845,16 +11612,16 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F65" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="41" t="s">
@@ -9882,16 +11649,16 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="F66" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="41" t="s">
@@ -9901,13 +11668,13 @@
         <v>199</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L66" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="24" t="s">
         <v>72</v>
@@ -9919,16 +11686,16 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F67" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="41" t="s">
@@ -9938,13 +11705,13 @@
         <v>199</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L67" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="24" t="s">
         <v>72</v>
@@ -9956,16 +11723,16 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="F68" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="41" t="s">
@@ -9975,13 +11742,13 @@
         <v>199</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L68" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" s="24" t="s">
         <v>72</v>
@@ -9993,16 +11760,16 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F69" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="41" t="s">
@@ -10030,16 +11797,16 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F70" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="41" t="s">
@@ -10067,16 +11834,16 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F71" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="41" t="s">
@@ -10104,16 +11871,16 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F72" s="28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="41" t="s">
@@ -10141,16 +11908,16 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F73" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="41" t="s">
@@ -10160,16 +11927,16 @@
         <v>199</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L73" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,16 +11945,16 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F74" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="41" t="s">
@@ -10197,16 +11964,16 @@
         <v>199</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L74" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10215,16 +11982,16 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F75" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="41" t="s">
@@ -10252,16 +12019,16 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="41" t="s">
-        <v>232</v>
+      <c r="E76" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F76" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="41" t="s">
@@ -10271,16 +12038,16 @@
         <v>199</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L76" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10289,16 +12056,16 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="41" t="s">
-        <v>235</v>
+      <c r="E77" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F77" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="41" t="s">
@@ -10308,16 +12075,16 @@
         <v>199</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L77" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10326,20 +12093,20 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F78" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="28"/>
-      <c r="H78" s="28" t="s">
-        <v>72</v>
+      <c r="H78" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>199</v>
@@ -10354,7 +12121,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10363,20 +12130,20 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F79" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
-        <v>72</v>
+      <c r="H79" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>199</v>
@@ -10391,7 +12158,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10400,20 +12167,20 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F80" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
-        <v>72</v>
+      <c r="H80" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>199</v>
@@ -10428,7 +12195,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,35 +12204,35 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F81" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" s="28"/>
-      <c r="H81" s="28" t="s">
-        <v>72</v>
+      <c r="H81" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L81" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10474,35 +12241,35 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F82" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="28" t="s">
-        <v>72</v>
+      <c r="H82" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L82" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10511,20 +12278,20 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F83" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="28" t="s">
-        <v>72</v>
+      <c r="H83" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>199</v>
@@ -10539,7 +12306,7 @@
         <v>2</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10548,20 +12315,20 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F84" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="28" t="s">
-        <v>72</v>
+      <c r="H84" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>199</v>
@@ -10576,7 +12343,7 @@
         <v>2</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10585,20 +12352,20 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F85" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" s="28"/>
-      <c r="H85" s="28" t="s">
-        <v>72</v>
+      <c r="H85" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>199</v>
@@ -10613,7 +12380,7 @@
         <v>2</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10622,20 +12389,20 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F86" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G86" s="28"/>
-      <c r="H86" s="28" t="s">
-        <v>72</v>
+      <c r="H86" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>199</v>
@@ -10650,7 +12417,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10659,32 +12426,32 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F87" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="28" t="s">
-        <v>72</v>
+      <c r="H87" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L87" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O87" s="24" t="s">
         <v>25</v>
@@ -10696,32 +12463,32 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F88" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G88" s="28"/>
-      <c r="H88" s="28" t="s">
-        <v>72</v>
+      <c r="H88" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L88" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88" s="24" t="s">
         <v>25</v>
@@ -10733,20 +12500,20 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F89" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="28"/>
-      <c r="H89" s="28" t="s">
-        <v>72</v>
+      <c r="H89" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>199</v>
@@ -10770,16 +12537,16 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="41" t="s">
-        <v>232</v>
+      <c r="E90" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F90" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="28" t="s">
@@ -10789,13 +12556,13 @@
         <v>199</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L90" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90" s="24" t="s">
         <v>25</v>
@@ -10807,16 +12574,16 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="41" t="s">
-        <v>235</v>
+      <c r="E91" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="28" t="s">
@@ -10826,24 +12593,468 @@
         <v>199</v>
       </c>
       <c r="J91" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L91" s="14">
+        <v>1</v>
+      </c>
+      <c r="O91" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="28">
+        <v>3</v>
+      </c>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L92" s="14">
+        <v>1</v>
+      </c>
+      <c r="O92" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="28">
+        <v>4</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L93" s="14">
+        <v>1</v>
+      </c>
+      <c r="O93" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="28">
+        <v>5</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1</v>
+      </c>
+      <c r="O94" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" s="28">
+        <v>1</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L95" s="14">
+        <v>2</v>
+      </c>
+      <c r="O95" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="28">
+        <v>2</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L96" s="14">
+        <v>2</v>
+      </c>
+      <c r="O96" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="28">
+        <v>3</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L97" s="14">
+        <v>2</v>
+      </c>
+      <c r="O97" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98" s="28">
+        <v>4</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L98" s="14">
+        <v>2</v>
+      </c>
+      <c r="O98" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="28">
+        <v>5</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2</v>
+      </c>
+      <c r="O99" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" s="28">
+        <v>6</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100" s="14">
+        <v>2</v>
+      </c>
+      <c r="O100" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="28">
+        <v>1</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K91" s="24" t="s">
+      <c r="K101" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L101" s="14">
         <v>3</v>
       </c>
-      <c r="O91" s="24" t="s">
+      <c r="O101" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="28">
+        <v>2</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L102" s="14">
+        <v>3</v>
+      </c>
+      <c r="O102" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="28">
+        <v>3</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L103" s="14">
+        <v>3</v>
+      </c>
+      <c r="O103" s="24" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A20:A91 A4:A19" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A103" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B20:B91 B4:B19" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B103" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10862,7 +13073,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10933,7 +13144,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -10951,7 +13162,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -10982,7 +13193,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABC951-1B27-064C-9CA5-55532B41E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF8EC5-FFC2-0949-9888-CC55363250C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3571,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3720,7 +3720,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4638,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6027,7 +6027,7 @@
         <v>306</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6044,7 +6044,7 @@
         <v>306</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6061,7 +6061,7 @@
         <v>306</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6078,7 +6078,7 @@
         <v>306</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6095,7 +6095,7 @@
         <v>306</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6112,7 +6112,7 @@
         <v>306</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6583,8 +6583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:F24"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF8EC5-FFC2-0949-9888-CC55363250C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>befta.caseworker.2.solicitor.2@gmail.com</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_3</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1402,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1515,6 +1521,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3571,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3691,12 +3701,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3704,6 +3724,7 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{7A87C9B7-5777-4145-9A50-F8A893972F50}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{977DB4FA-BE1F-B549-823A-29002CF2981B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{350FA403-4E09-CF48-986D-AD9F992A88E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3717,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3828,12 +3849,27 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3850,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4135,6 +4171,60 @@
         <v>123</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4148,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4623,6 +4713,162 @@
         <v>123</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4636,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4949,13 +5195,13 @@
         <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>275</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4966,13 +5212,13 @@
         <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>275</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4982,14 +5228,14 @@
       <c r="C20" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>275</v>
+      <c r="D20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4999,14 +5245,14 @@
       <c r="C21" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>275</v>
+      <c r="D21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5016,14 +5262,14 @@
       <c r="C22" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>275</v>
+      <c r="D22" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,13 +5280,13 @@
         <v>271</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>275</v>
+        <v>142</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,12 +5298,12 @@
         <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5069,10 +5315,10 @@
         <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>275</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -5086,10 +5332,10 @@
         <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>275</v>
+        <v>156</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -5102,8 +5348,8 @@
       <c r="C27" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>133</v>
+      <c r="D27" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>305</v>
@@ -5119,8 +5365,8 @@
       <c r="C28" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>135</v>
+      <c r="D28" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>305</v>
@@ -5136,8 +5382,8 @@
       <c r="C29" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>137</v>
+      <c r="D29" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>305</v>
@@ -5154,7 +5400,7 @@
         <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>305</v>
@@ -5170,8 +5416,8 @@
       <c r="C31" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>144</v>
+      <c r="D31" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>305</v>
@@ -5188,7 +5434,7 @@
         <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>305</v>
@@ -5205,7 +5451,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>305</v>
@@ -5222,13 +5468,13 @@
         <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5239,13 +5485,13 @@
         <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5256,13 +5502,13 @@
         <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5273,13 +5519,13 @@
         <v>271</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5289,14 +5535,14 @@
       <c r="C38" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>235</v>
+      <c r="D38" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,13 +5553,13 @@
         <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5324,7 +5570,7 @@
         <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>305</v>
@@ -5341,7 +5587,7 @@
         <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>305</v>
@@ -5358,13 +5604,13 @@
         <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,16 +5618,16 @@
         <v>42736</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5389,16 +5635,16 @@
         <v>42736</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5406,16 +5652,16 @@
         <v>42736</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5423,16 +5669,16 @@
         <v>42736</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>305</v>
+        <v>142</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5440,16 +5686,16 @@
         <v>42736</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>305</v>
+        <v>144</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5457,13 +5703,13 @@
         <v>42736</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>305</v>
+        <v>148</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>123</v>
@@ -5474,13 +5720,13 @@
         <v>42736</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>305</v>
+        <v>156</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>123</v>
@@ -5493,8 +5739,8 @@
       <c r="C50" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>133</v>
+      <c r="D50" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>267</v>
@@ -5510,8 +5756,8 @@
       <c r="C51" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>135</v>
+      <c r="D51" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>267</v>
@@ -5527,8 +5773,8 @@
       <c r="C52" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>137</v>
+      <c r="D52" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>267</v>
@@ -5545,7 +5791,7 @@
         <v>272</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>267</v>
@@ -5561,8 +5807,8 @@
       <c r="C54" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="41" t="s">
-        <v>144</v>
+      <c r="D54" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>267</v>
@@ -5579,7 +5825,7 @@
         <v>272</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>267</v>
@@ -5596,7 +5842,7 @@
         <v>272</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>267</v>
@@ -5613,7 +5859,7 @@
         <v>272</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>267</v>
@@ -5630,7 +5876,7 @@
         <v>272</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>267</v>
@@ -5644,13 +5890,13 @@
         <v>42736</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>123</v>
@@ -5661,13 +5907,13 @@
         <v>42736</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>123</v>
@@ -5678,13 +5924,13 @@
         <v>42736</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>123</v>
@@ -5695,13 +5941,13 @@
         <v>42736</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>267</v>
+        <v>142</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>123</v>
@@ -5712,13 +5958,13 @@
         <v>42736</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>267</v>
+        <v>144</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>123</v>
@@ -5729,13 +5975,13 @@
         <v>42736</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>267</v>
+        <v>148</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>123</v>
@@ -5746,13 +5992,13 @@
         <v>42736</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>267</v>
+        <v>156</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>123</v>
@@ -5765,8 +6011,8 @@
       <c r="C66" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="28" t="s">
-        <v>133</v>
+      <c r="D66" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>306</v>
@@ -5782,8 +6028,8 @@
       <c r="C67" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>135</v>
+      <c r="D67" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>306</v>
@@ -5799,8 +6045,8 @@
       <c r="C68" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="28" t="s">
-        <v>137</v>
+      <c r="D68" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>306</v>
@@ -5817,7 +6063,7 @@
         <v>271</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>306</v>
@@ -5833,8 +6079,8 @@
       <c r="C70" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="41" t="s">
-        <v>144</v>
+      <c r="D70" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>306</v>
@@ -5851,7 +6097,7 @@
         <v>271</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>306</v>
@@ -5868,7 +6114,7 @@
         <v>271</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>306</v>
@@ -5885,7 +6131,7 @@
         <v>271</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>306</v>
@@ -5902,7 +6148,7 @@
         <v>271</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="E74" s="24" t="s">
         <v>306</v>
@@ -5919,7 +6165,7 @@
         <v>271</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>306</v>
@@ -5936,7 +6182,7 @@
         <v>271</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>306</v>
@@ -5952,8 +6198,8 @@
       <c r="C77" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>235</v>
+      <c r="D77" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>306</v>
@@ -5970,7 +6216,7 @@
         <v>271</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>306</v>
@@ -5987,7 +6233,7 @@
         <v>271</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>306</v>
@@ -6004,7 +6250,7 @@
         <v>271</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>306</v>
@@ -6021,7 +6267,7 @@
         <v>271</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>306</v>
@@ -6037,11 +6283,11 @@
       <c r="C82" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D82" s="41" t="s">
-        <v>280</v>
+      <c r="D82" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F82" s="24" t="s">
         <v>123</v>
@@ -6054,11 +6300,11 @@
       <c r="C83" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="41" t="s">
-        <v>281</v>
+      <c r="D83" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F83" s="24" t="s">
         <v>123</v>
@@ -6071,11 +6317,11 @@
       <c r="C84" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="41" t="s">
-        <v>282</v>
+      <c r="D84" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F84" s="24" t="s">
         <v>123</v>
@@ -6089,10 +6335,10 @@
         <v>271</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F85" s="24" t="s">
         <v>123</v>
@@ -6106,10 +6352,10 @@
         <v>271</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F86" s="24" t="s">
         <v>123</v>
@@ -6123,10 +6369,10 @@
         <v>271</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>123</v>
@@ -6140,12 +6386,300 @@
         <v>271</v>
       </c>
       <c r="D88" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F88" s="24" t="s">
+      <c r="E104" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6162,7 +6696,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -6416,6 +6950,66 @@
         <v>306</v>
       </c>
       <c r="G12" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>123</v>
       </c>
     </row>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAABC951-1B27-064C-9CA5-55532B41E542}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>befta.caseworker.2.solicitor.2@gmail.com</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_3</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1402,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1515,6 +1521,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3572,7 +3582,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3691,12 +3701,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="24"/>
+      <c r="C8" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3704,6 +3724,7 @@
     <hyperlink ref="C6" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{7A87C9B7-5777-4145-9A50-F8A893972F50}"/>
     <hyperlink ref="C7" r:id="rId4" xr:uid="{977DB4FA-BE1F-B549-823A-29002CF2981B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{350FA403-4E09-CF48-986D-AD9F992A88E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3717,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3828,12 +3849,27 @@
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3850,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E18" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4135,6 +4171,60 @@
         <v>123</v>
       </c>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4148,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22:E27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4623,6 +4713,162 @@
         <v>123</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="24"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4636,10 +4882,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4949,13 +5195,13 @@
         <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>275</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4966,13 +5212,13 @@
         <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>275</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4982,14 +5228,14 @@
       <c r="C20" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>275</v>
+      <c r="D20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4999,14 +5245,14 @@
       <c r="C21" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>275</v>
+      <c r="D21" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5016,14 +5262,14 @@
       <c r="C22" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>275</v>
+      <c r="D22" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5034,13 +5280,13 @@
         <v>271</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>275</v>
+        <v>142</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5052,12 +5298,12 @@
         <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="F24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5069,10 +5315,10 @@
         <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>275</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -5086,10 +5332,10 @@
         <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>275</v>
+        <v>156</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -5102,8 +5348,8 @@
       <c r="C27" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D27" s="28" t="s">
-        <v>133</v>
+      <c r="D27" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>305</v>
@@ -5119,8 +5365,8 @@
       <c r="C28" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="28" t="s">
-        <v>135</v>
+      <c r="D28" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>305</v>
@@ -5136,8 +5382,8 @@
       <c r="C29" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>137</v>
+      <c r="D29" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>305</v>
@@ -5154,7 +5400,7 @@
         <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>305</v>
@@ -5170,8 +5416,8 @@
       <c r="C31" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="41" t="s">
-        <v>144</v>
+      <c r="D31" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E31" s="24" t="s">
         <v>305</v>
@@ -5188,7 +5434,7 @@
         <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E32" s="24" t="s">
         <v>305</v>
@@ -5205,7 +5451,7 @@
         <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E33" s="24" t="s">
         <v>305</v>
@@ -5222,13 +5468,13 @@
         <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5239,13 +5485,13 @@
         <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="E35" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5256,13 +5502,13 @@
         <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5273,13 +5519,13 @@
         <v>271</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5289,14 +5535,14 @@
       <c r="C38" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D38" s="24" t="s">
-        <v>235</v>
+      <c r="D38" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5307,13 +5553,13 @@
         <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>123</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5324,7 +5570,7 @@
         <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>305</v>
@@ -5341,7 +5587,7 @@
         <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>305</v>
@@ -5358,13 +5604,13 @@
         <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>305</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,16 +5618,16 @@
         <v>42736</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5389,16 +5635,16 @@
         <v>42736</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5406,16 +5652,16 @@
         <v>42736</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>305</v>
+        <v>272</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5423,16 +5669,16 @@
         <v>42736</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>305</v>
+        <v>142</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5440,16 +5686,16 @@
         <v>42736</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>305</v>
+        <v>144</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5457,13 +5703,13 @@
         <v>42736</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>305</v>
+        <v>148</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F48" s="24" t="s">
         <v>123</v>
@@ -5474,13 +5720,13 @@
         <v>42736</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>305</v>
+        <v>156</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>267</v>
       </c>
       <c r="F49" s="24" t="s">
         <v>123</v>
@@ -5493,8 +5739,8 @@
       <c r="C50" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>133</v>
+      <c r="D50" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E50" s="14" t="s">
         <v>267</v>
@@ -5510,8 +5756,8 @@
       <c r="C51" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>135</v>
+      <c r="D51" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>267</v>
@@ -5527,8 +5773,8 @@
       <c r="C52" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>137</v>
+      <c r="D52" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>267</v>
@@ -5545,7 +5791,7 @@
         <v>272</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>267</v>
@@ -5561,8 +5807,8 @@
       <c r="C54" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D54" s="41" t="s">
-        <v>144</v>
+      <c r="D54" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>267</v>
@@ -5579,7 +5825,7 @@
         <v>272</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>267</v>
@@ -5596,7 +5842,7 @@
         <v>272</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>267</v>
@@ -5613,7 +5859,7 @@
         <v>272</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>267</v>
@@ -5630,7 +5876,7 @@
         <v>272</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>267</v>
@@ -5644,13 +5890,13 @@
         <v>42736</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F59" s="24" t="s">
         <v>123</v>
@@ -5661,13 +5907,13 @@
         <v>42736</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F60" s="24" t="s">
         <v>123</v>
@@ -5678,13 +5924,13 @@
         <v>42736</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F61" s="24" t="s">
         <v>123</v>
@@ -5695,13 +5941,13 @@
         <v>42736</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D62" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>267</v>
+        <v>142</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F62" s="24" t="s">
         <v>123</v>
@@ -5712,13 +5958,13 @@
         <v>42736</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>267</v>
+        <v>144</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F63" s="24" t="s">
         <v>123</v>
@@ -5729,13 +5975,13 @@
         <v>42736</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>267</v>
+        <v>148</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F64" s="24" t="s">
         <v>123</v>
@@ -5746,13 +5992,13 @@
         <v>42736</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>267</v>
+        <v>156</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>306</v>
       </c>
       <c r="F65" s="24" t="s">
         <v>123</v>
@@ -5765,8 +6011,8 @@
       <c r="C66" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="28" t="s">
-        <v>133</v>
+      <c r="D66" s="41" t="s">
+        <v>239</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>306</v>
@@ -5782,8 +6028,8 @@
       <c r="C67" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D67" s="28" t="s">
-        <v>135</v>
+      <c r="D67" s="41" t="s">
+        <v>154</v>
       </c>
       <c r="E67" s="24" t="s">
         <v>306</v>
@@ -5799,8 +6045,8 @@
       <c r="C68" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D68" s="28" t="s">
-        <v>137</v>
+      <c r="D68" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>306</v>
@@ -5817,7 +6063,7 @@
         <v>271</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="E69" s="24" t="s">
         <v>306</v>
@@ -5833,8 +6079,8 @@
       <c r="C70" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D70" s="41" t="s">
-        <v>144</v>
+      <c r="D70" s="24" t="s">
+        <v>235</v>
       </c>
       <c r="E70" s="24" t="s">
         <v>306</v>
@@ -5851,7 +6097,7 @@
         <v>271</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>148</v>
+        <v>232</v>
       </c>
       <c r="E71" s="24" t="s">
         <v>306</v>
@@ -5868,7 +6114,7 @@
         <v>271</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>156</v>
+        <v>223</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>306</v>
@@ -5885,7 +6131,7 @@
         <v>271</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="E73" s="24" t="s">
         <v>306</v>
@@ -5902,7 +6148,7 @@
         <v>271</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>154</v>
+        <v>279</v>
       </c>
       <c r="E74" s="24" t="s">
         <v>306</v>
@@ -5919,7 +6165,7 @@
         <v>271</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>158</v>
+        <v>280</v>
       </c>
       <c r="E75" s="24" t="s">
         <v>306</v>
@@ -5936,7 +6182,7 @@
         <v>271</v>
       </c>
       <c r="D76" s="41" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>306</v>
@@ -5952,8 +6198,8 @@
       <c r="C77" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D77" s="24" t="s">
-        <v>235</v>
+      <c r="D77" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>306</v>
@@ -5970,7 +6216,7 @@
         <v>271</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="E78" s="24" t="s">
         <v>306</v>
@@ -5987,7 +6233,7 @@
         <v>271</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E79" s="24" t="s">
         <v>306</v>
@@ -6004,7 +6250,7 @@
         <v>271</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="E80" s="24" t="s">
         <v>306</v>
@@ -6021,13 +6267,13 @@
         <v>271</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E81" s="24" t="s">
         <v>306</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6037,14 +6283,14 @@
       <c r="C82" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D82" s="41" t="s">
-        <v>280</v>
+      <c r="D82" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6054,14 +6300,14 @@
       <c r="C83" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="41" t="s">
-        <v>281</v>
+      <c r="D83" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="E83" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F83" s="24" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6071,14 +6317,14 @@
       <c r="C84" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D84" s="41" t="s">
-        <v>282</v>
+      <c r="D84" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="E84" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F84" s="24" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6089,13 +6335,13 @@
         <v>271</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="E85" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>293</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6106,13 +6352,13 @@
         <v>271</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="E86" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F86" s="24" t="s">
-        <v>292</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6123,10 +6369,10 @@
         <v>271</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="F87" s="24" t="s">
         <v>123</v>
@@ -6140,12 +6386,300 @@
         <v>271</v>
       </c>
       <c r="D88" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="41" t="s">
         <v>255</v>
       </c>
-      <c r="E88" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="F88" s="24" t="s">
+      <c r="E104" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6162,7 +6696,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -6416,6 +6950,66 @@
         <v>306</v>
       </c>
       <c r="G12" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6583,8 +7177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:F24"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -787,15 +787,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>DocumentField</t>
-  </si>
-  <si>
-    <t>A `Document` field</t>
-  </si>
-  <si>
-    <t>A document</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -904,6 +895,105 @@
   </si>
   <si>
     <t>befta.citizen.2@gmail.com</t>
+  </si>
+  <si>
+    <t>DocumentField1</t>
+  </si>
+  <si>
+    <t>DocumentField2</t>
+  </si>
+  <si>
+    <t>DocumentField3</t>
+  </si>
+  <si>
+    <t>DocumentField4</t>
+  </si>
+  <si>
+    <t>DocumentField5</t>
+  </si>
+  <si>
+    <t>DocumentField6</t>
+  </si>
+  <si>
+    <t>DocumentField7</t>
+  </si>
+  <si>
+    <t>A document 1</t>
+  </si>
+  <si>
+    <t>A document 2</t>
+  </si>
+  <si>
+    <t>A document 3</t>
+  </si>
+  <si>
+    <t>A document 4</t>
+  </si>
+  <si>
+    <t>A document 5</t>
+  </si>
+  <si>
+    <t>A document 6</t>
+  </si>
+  <si>
+    <t>A document 7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>A `Document` 1 field</t>
+  </si>
+  <si>
+    <t>A `Document` 2 field</t>
+  </si>
+  <si>
+    <t>A `Document` 3 field</t>
+  </si>
+  <si>
+    <t>A `Document` 4 field</t>
+  </si>
+  <si>
+    <t>A `Document` 5 field</t>
+  </si>
+  <si>
+    <t>A `Document` 6 field</t>
+  </si>
+  <si>
+    <t>A `Document`7 field</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_1</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_2</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.1@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.2@gmail.com</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_3</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1402,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1431,6 +1521,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1766,7 +1860,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,13 +1923,13 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +2027,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -1951,7 +2045,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>144</v>
@@ -1969,7 +2063,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>133</v>
@@ -1987,7 +2081,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>144</v>
@@ -2018,7 +2112,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0900-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D7</xm:sqref>
         </x14:dataValidation>
@@ -2036,7 +2130,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2108,7 +2202,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
@@ -2126,7 +2220,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -2157,7 +2251,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>
@@ -2172,17 +2266,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -2246,7 +2340,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -2258,69 +2352,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>42736</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="23"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B7" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2331,9 +2396,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0B00-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D7</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2346,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C35"/>
+      <selection activeCell="H19" sqref="C19:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2443,7 +2508,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
@@ -2470,7 +2535,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>55</v>
@@ -2497,7 +2562,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>55</v>
@@ -2524,7 +2589,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>55</v>
@@ -2551,7 +2616,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>55</v>
@@ -2578,7 +2643,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>55</v>
@@ -2605,7 +2670,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>55</v>
@@ -2632,7 +2697,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>55</v>
@@ -2659,7 +2724,7 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>55</v>
@@ -2686,7 +2751,7 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>55</v>
@@ -2713,7 +2778,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>55</v>
@@ -2728,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I14" s="28">
         <v>6</v>
@@ -2740,7 +2805,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>55</v>
@@ -2767,7 +2832,7 @@
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>55</v>
@@ -2794,7 +2859,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>55</v>
@@ -2821,7 +2886,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>55</v>
@@ -2848,7 +2913,7 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>55</v>
@@ -2863,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="I19" s="28">
         <v>4</v>
@@ -2875,25 +2940,25 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G20" s="28">
+        <v>3</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="28">
         <v>4</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,25 +2967,25 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="I21" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,25 +2994,25 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="I22" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,25 +3021,25 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="I23" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,22 +3048,22 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="I24" s="28">
         <v>4</v>
@@ -3010,25 +3075,25 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G25" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="I25" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,22 +3102,22 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="G26" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="I26" s="28">
         <v>1</v>
@@ -3064,25 +3129,25 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="28">
-        <v>2</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="I27" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,25 +3156,25 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G28" s="28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="28">
         <v>2</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,25 +3183,25 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="28">
-        <v>2</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="I29" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,25 +3210,25 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="I30" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,25 +3237,25 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G31" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="I31" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3264,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>55</v>
@@ -3214,10 +3279,10 @@
         <v>2</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I32" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,25 +3291,25 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G33" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="I33" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,25 +3318,25 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28">
+        <v>2</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="28">
         <v>3</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,25 +3345,25 @@
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G35" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="I35" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,36 +3372,198 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="G36" s="28">
+        <v>2</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="28">
+        <v>2</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="28">
+        <v>3</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="28">
+        <v>3</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="28">
+        <v>3</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="28">
         <v>4</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="28">
+      <c r="H42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G36 I4:I36" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G42 I4:I42" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3352,10 +3579,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3408,13 +3635,13 @@
         <v>42736</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>183</v>
@@ -3424,39 +3651,80 @@
       <c r="A5" s="71">
         <v>42736</v>
       </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="72" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A27CCE11-3A76-8946-A93B-9CBC3432215F}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{7A87C9B7-5777-4145-9A50-F8A893972F50}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{977DB4FA-BE1F-B549-823A-29002CF2981B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{350FA403-4E09-CF48-986D-AD9F992A88E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3470,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3536,12 +3804,12 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3551,13 +3819,58 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3573,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E16:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3585,7 +3898,7 @@
     <col min="2" max="2" width="15.5" style="60" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" style="60" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="27" style="60" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="60" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="60" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="53"/>
   </cols>
@@ -3648,13 +3961,13 @@
       </c>
       <c r="B4" s="52"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>123</v>
@@ -3666,13 +3979,13 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>123</v>
@@ -3684,13 +3997,13 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>123</v>
@@ -3702,13 +4015,13 @@
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>270</v>
+      <c r="E7" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>123</v>
@@ -3720,13 +4033,13 @@
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>270</v>
+      <c r="E8" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>123</v>
@@ -3738,15 +4051,177 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>270</v>
+      <c r="E9" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F9" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="73" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3763,10 +4238,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3775,7 +4250,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3835,13 +4310,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -3852,13 +4327,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -3869,13 +4344,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -3886,13 +4361,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -3903,13 +4378,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -3920,13 +4395,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -3937,13 +4412,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>270</v>
+      <c r="E10" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -3954,13 +4429,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>270</v>
+      <c r="E11" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -3971,13 +4446,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>270</v>
+      <c r="E12" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -3988,13 +4463,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>270</v>
+      <c r="E13" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4005,13 +4480,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>270</v>
+      <c r="E14" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4022,17 +4497,377 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>270</v>
+      <c r="E15" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,9 +4882,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -4118,13 +4953,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -4135,13 +4970,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -4152,13 +4987,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -4169,13 +5004,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -4186,13 +5021,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -4203,13 +5038,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -4220,13 +5055,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -4237,13 +5072,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -4254,13 +5089,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -4271,13 +5106,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4288,13 +5123,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4305,13 +5140,13 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
@@ -4323,13 +5158,13 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>123</v>
@@ -4340,31 +5175,30 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>42736</v>
       </c>
-      <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>123</v>
@@ -4375,13 +5209,13 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>123</v>
@@ -4392,13 +5226,13 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>123</v>
@@ -4409,13 +5243,13 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>270</v>
+        <v>135</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>123</v>
@@ -4426,13 +5260,13 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>270</v>
+        <v>137</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>123</v>
@@ -4443,30 +5277,31 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71">
         <v>42736</v>
       </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>270</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>123</v>
@@ -4477,13 +5312,13 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>270</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -4494,13 +5329,13 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>270</v>
+        <v>156</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -4511,13 +5346,13 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>123</v>
@@ -4528,13 +5363,13 @@
         <v>42736</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>270</v>
+        <v>154</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>123</v>
@@ -4545,13 +5380,13 @@
         <v>42736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>270</v>
+        <v>158</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
@@ -4562,13 +5397,13 @@
         <v>42736</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>270</v>
+        <v>168</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>123</v>
@@ -4579,13 +5414,13 @@
         <v>42736</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>123</v>
@@ -4596,13 +5431,13 @@
         <v>42736</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>123</v>
@@ -4613,13 +5448,13 @@
         <v>42736</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>270</v>
+        <v>223</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>123</v>
@@ -4630,16 +5465,16 @@
         <v>42736</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4647,16 +5482,16 @@
         <v>42736</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,15 +5499,1187 @@
         <v>42736</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4689,10 +6696,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4702,14 +6709,14 @@
     <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="80" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>1</v>
@@ -4728,19 +6735,19 @@
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4771,7 +6778,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>223</v>
@@ -4780,7 +6787,7 @@
         <v>213</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>123</v>
@@ -4791,7 +6798,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>223</v>
@@ -4800,7 +6807,7 @@
         <v>215</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>123</v>
@@ -4811,7 +6818,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>223</v>
@@ -4820,9 +6827,189 @@
         <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G6" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="80" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4836,7 +7023,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4931,16 +7118,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -4952,16 +7139,16 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>116</v>
@@ -4988,10 +7175,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5109,7 +7296,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -5138,7 +7325,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
@@ -5167,7 +7354,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
@@ -5196,7 +7383,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
@@ -5225,7 +7412,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
@@ -5254,7 +7441,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
@@ -5283,7 +7470,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
@@ -5312,7 +7499,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
@@ -5341,7 +7528,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
@@ -5370,7 +7557,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
@@ -5401,7 +7588,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
@@ -5432,7 +7619,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>232</v>
@@ -5463,7 +7650,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>223</v>
@@ -5492,7 +7679,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>235</v>
@@ -5521,19 +7708,19 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>243</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="28" t="s">
@@ -5550,23 +7737,21 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H19" s="41"/>
       <c r="I19" s="28" t="s">
         <v>25</v>
       </c>
@@ -5581,19 +7766,19 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>261</v>
+        <v>287</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="28" t="s">
@@ -5610,21 +7795,21 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="41"/>
       <c r="I21" s="28" t="s">
         <v>25</v>
       </c>
@@ -5639,21 +7824,21 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="41"/>
       <c r="I22" s="28" t="s">
         <v>25</v>
       </c>
@@ -5668,21 +7853,21 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>139</v>
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H23" s="41"/>
       <c r="I23" s="28" t="s">
         <v>25</v>
       </c>
@@ -5697,21 +7882,21 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H24" s="41"/>
       <c r="I24" s="28" t="s">
         <v>25</v>
       </c>
@@ -5726,21 +7911,23 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="28"/>
+        <v>247</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="I25" s="28" t="s">
         <v>25</v>
       </c>
@@ -5755,21 +7942,21 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="28"/>
+        <v>257</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="41"/>
       <c r="I26" s="28" t="s">
         <v>25</v>
       </c>
@@ -5784,19 +7971,19 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28" t="s">
@@ -5813,19 +8000,19 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>242</v>
+        <v>272</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
@@ -5842,19 +8029,19 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>157</v>
+        <v>272</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -5871,23 +8058,21 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H30" s="28"/>
       <c r="I30" s="28" t="s">
         <v>25</v>
       </c>
@@ -5902,23 +8087,21 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H31" s="28"/>
       <c r="I31" s="28" t="s">
         <v>25</v>
       </c>
@@ -5933,23 +8116,21 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>24</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H32" s="28"/>
       <c r="I32" s="28" t="s">
         <v>25</v>
       </c>
@@ -5964,21 +8145,21 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="28"/>
       <c r="I33" s="28" t="s">
         <v>25</v>
       </c>
@@ -5993,21 +8174,21 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="41"/>
+        <v>242</v>
+      </c>
+      <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
         <v>25</v>
       </c>
@@ -6022,23 +8203,21 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
         <v>25</v>
       </c>
@@ -6053,21 +8232,23 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>160</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="I36" s="28" t="s">
         <v>25</v>
       </c>
@@ -6076,12 +8257,192 @@
         <v>116</v>
       </c>
     </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6100,7 +8461,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6282,13 +8643,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,13 +8658,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>254</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,13 +8673,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +8704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -6636,7 +8997,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6709,7 +9070,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
@@ -6728,7 +9089,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
@@ -6747,7 +9108,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
@@ -6766,7 +9127,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
@@ -6785,7 +9146,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
@@ -6804,7 +9165,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
@@ -6844,7 +9205,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6995,7 +9356,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7024,7 +9385,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
@@ -7061,7 +9422,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
@@ -7098,7 +9459,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
@@ -7135,7 +9496,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
@@ -7172,7 +9533,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
@@ -7209,7 +9570,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7244,7 +9605,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
@@ -7281,7 +9642,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
@@ -7318,7 +9679,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
@@ -7355,7 +9716,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
@@ -7392,7 +9753,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
@@ -7447,10 +9808,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7588,7 +9949,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7625,7 +9986,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>188</v>
@@ -7662,7 +10023,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>188</v>
@@ -7699,7 +10060,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>188</v>
@@ -7736,7 +10097,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>188</v>
@@ -7773,7 +10134,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>188</v>
@@ -7810,7 +10171,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7847,7 +10208,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>188</v>
@@ -7884,7 +10245,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>188</v>
@@ -7921,7 +10282,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>188</v>
@@ -7958,13 +10319,13 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F14" s="28">
         <v>6</v>
@@ -7995,7 +10356,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>188</v>
@@ -8032,7 +10393,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>188</v>
@@ -8069,7 +10430,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>188</v>
@@ -8106,7 +10467,7 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>188</v>
@@ -8143,13 +10504,13 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="F19" s="28">
         <v>4</v>
@@ -8180,16 +10541,16 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="F20" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="41" t="s">
@@ -8199,13 +10560,13 @@
         <v>199</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>72</v>
@@ -8217,16 +10578,16 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="F21" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="41" t="s">
@@ -8236,13 +10597,13 @@
         <v>199</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L21" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="24" t="s">
         <v>72</v>
@@ -8254,16 +10615,16 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="F22" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="41" t="s">
@@ -8273,13 +10634,13 @@
         <v>199</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L22" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>72</v>
@@ -8291,13 +10652,13 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="F23" s="28">
         <v>4</v>
@@ -8310,13 +10671,13 @@
         <v>199</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L23" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>72</v>
@@ -8328,16 +10689,16 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="F24" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="41" t="s">
@@ -8347,13 +10708,13 @@
         <v>199</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L24" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>72</v>
@@ -8365,16 +10726,16 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="F25" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41" t="s">
@@ -8384,13 +10745,13 @@
         <v>199</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>72</v>
@@ -8402,16 +10763,16 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>156</v>
+      <c r="E26" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="41" t="s">
@@ -8421,13 +10782,13 @@
         <v>199</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>72</v>
@@ -8439,16 +10800,16 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>239</v>
+      <c r="E27" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F27" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="41" t="s">
@@ -8458,13 +10819,13 @@
         <v>199</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
         <v>72</v>
@@ -8476,16 +10837,16 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>154</v>
+      <c r="E28" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F28" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="41" t="s">
@@ -8495,13 +10856,13 @@
         <v>199</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="24" t="s">
         <v>72</v>
@@ -8513,16 +10874,16 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F29" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="41" t="s">
@@ -8532,13 +10893,13 @@
         <v>199</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L29" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="24" t="s">
         <v>72</v>
@@ -8550,16 +10911,16 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F30" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="41" t="s">
@@ -8569,13 +10930,13 @@
         <v>199</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L30" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>72</v>
@@ -8587,13 +10948,13 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="F31" s="28">
         <v>1</v>
@@ -8606,16 +10967,16 @@
         <v>199</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L31" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8624,13 +10985,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
@@ -8643,16 +11004,16 @@
         <v>199</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8661,13 +11022,13 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F33" s="28">
         <v>3</v>
@@ -8680,16 +11041,16 @@
         <v>199</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8698,13 +11059,13 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
@@ -8717,13 +11078,13 @@
         <v>199</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L34" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="24" t="s">
         <v>72</v>
@@ -8735,35 +11096,35 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
-        <v>72</v>
+      <c r="H35" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8772,35 +11133,35 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F36" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28" t="s">
-        <v>72</v>
+      <c r="H36" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L36" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8809,32 +11170,32 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F37" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28" t="s">
-        <v>72</v>
+      <c r="H37" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L37" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>25</v>
@@ -8846,32 +11207,32 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="F38" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28" t="s">
-        <v>72</v>
+      <c r="H38" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L38" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="24" t="s">
         <v>25</v>
@@ -8883,32 +11244,32 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F39" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
-        <v>72</v>
+      <c r="H39" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L39" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" s="24" t="s">
         <v>25</v>
@@ -8920,35 +11281,35 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="F40" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28" t="s">
-        <v>72</v>
+      <c r="H40" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L40" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8957,35 +11318,35 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F41" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28" t="s">
-        <v>72</v>
+      <c r="H41" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L41" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8994,35 +11355,35 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="F42" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
-        <v>72</v>
+      <c r="H42" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L42" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9031,35 +11392,35 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="F43" s="28">
         <v>4</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="28" t="s">
-        <v>72</v>
+      <c r="H43" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L43" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9068,35 +11429,35 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F44" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28" t="s">
-        <v>72</v>
+      <c r="H44" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L44" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9105,35 +11466,35 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F45" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="28" t="s">
-        <v>72</v>
+      <c r="H45" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9142,20 +11503,20 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F46" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
-        <v>72</v>
+      <c r="H46" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>199</v>
@@ -9170,7 +11531,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9179,16 +11540,16 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="41" t="s">
-        <v>232</v>
+      <c r="E47" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F47" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28" t="s">
@@ -9198,13 +11559,13 @@
         <v>199</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L47" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" s="24" t="s">
         <v>25</v>
@@ -9216,16 +11577,16 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>235</v>
+      <c r="E48" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F48" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28" t="s">
@@ -9235,13 +11596,13 @@
         <v>199</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L48" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48" s="24" t="s">
         <v>25</v>
@@ -9253,20 +11614,20 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F49" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="41" t="s">
-        <v>25</v>
+      <c r="H49" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>199</v>
@@ -9281,7 +11642,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9290,20 +11651,20 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F50" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="41" t="s">
-        <v>25</v>
+      <c r="H50" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>199</v>
@@ -9318,7 +11679,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9327,20 +11688,20 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>137</v>
+        <v>204</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F51" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="41" t="s">
-        <v>25</v>
+      <c r="H51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>199</v>
@@ -9355,7 +11716,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9364,35 +11725,35 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F52" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="41" t="s">
-        <v>25</v>
+      <c r="H52" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L52" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9401,35 +11762,35 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F53" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="41" t="s">
-        <v>25</v>
+      <c r="H53" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9438,20 +11799,20 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F54" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="41" t="s">
-        <v>25</v>
+      <c r="H54" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>199</v>
@@ -9466,7 +11827,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9475,20 +11836,20 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F55" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="41" t="s">
-        <v>25</v>
+      <c r="H55" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>199</v>
@@ -9503,7 +11864,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9512,20 +11873,20 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F56" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="41" t="s">
-        <v>25</v>
+      <c r="H56" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>199</v>
@@ -9540,7 +11901,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9549,20 +11910,20 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F57" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="41" t="s">
-        <v>25</v>
+      <c r="H57" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>199</v>
@@ -9577,7 +11938,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9586,35 +11947,35 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F58" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="41" t="s">
-        <v>25</v>
+      <c r="H58" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L58" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9623,35 +11984,35 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F59" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" s="28"/>
-      <c r="H59" s="41" t="s">
-        <v>25</v>
+      <c r="H59" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L59" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9660,35 +12021,35 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="F60" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G60" s="28"/>
-      <c r="H60" s="41" t="s">
-        <v>25</v>
+      <c r="H60" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L60" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,13 +12058,13 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>223</v>
+      <c r="E61" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F61" s="28">
         <v>1</v>
@@ -9716,16 +12077,16 @@
         <v>199</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L61" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9734,13 +12095,13 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>232</v>
+      <c r="E62" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F62" s="28">
         <v>2</v>
@@ -9753,16 +12114,16 @@
         <v>199</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L62" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9771,13 +12132,13 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="41" t="s">
-        <v>235</v>
+      <c r="E63" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F63" s="28">
         <v>3</v>
@@ -9790,16 +12151,16 @@
         <v>199</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L63" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9808,16 +12169,16 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F64" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="41" t="s">
@@ -9845,16 +12206,16 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F65" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="41" t="s">
@@ -9882,16 +12243,16 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="F66" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="41" t="s">
@@ -9901,13 +12262,13 @@
         <v>199</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L66" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="24" t="s">
         <v>72</v>
@@ -9919,16 +12280,16 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F67" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="41" t="s">
@@ -9938,13 +12299,13 @@
         <v>199</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L67" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="24" t="s">
         <v>72</v>
@@ -9956,16 +12317,16 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="F68" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="41" t="s">
@@ -9975,13 +12336,13 @@
         <v>199</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L68" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" s="24" t="s">
         <v>72</v>
@@ -9993,16 +12354,16 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F69" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="41" t="s">
@@ -10030,16 +12391,16 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F70" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="41" t="s">
@@ -10067,16 +12428,16 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F71" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="41" t="s">
@@ -10104,16 +12465,16 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F72" s="28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="41" t="s">
@@ -10141,16 +12502,16 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F73" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="41" t="s">
@@ -10160,16 +12521,16 @@
         <v>199</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L73" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,16 +12539,16 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F74" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="41" t="s">
@@ -10197,16 +12558,16 @@
         <v>199</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L74" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10215,16 +12576,16 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F75" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="41" t="s">
@@ -10252,16 +12613,16 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="41" t="s">
-        <v>232</v>
+      <c r="E76" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F76" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="41" t="s">
@@ -10271,16 +12632,16 @@
         <v>199</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L76" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10289,16 +12650,16 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="41" t="s">
-        <v>235</v>
+      <c r="E77" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F77" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="41" t="s">
@@ -10308,16 +12669,16 @@
         <v>199</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L77" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10326,20 +12687,20 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F78" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="28"/>
-      <c r="H78" s="28" t="s">
-        <v>72</v>
+      <c r="H78" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>199</v>
@@ -10354,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10363,20 +12724,20 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F79" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
-        <v>72</v>
+      <c r="H79" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>199</v>
@@ -10391,7 +12752,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10400,20 +12761,20 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F80" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
-        <v>72</v>
+      <c r="H80" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>199</v>
@@ -10428,7 +12789,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,35 +12798,35 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F81" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" s="28"/>
-      <c r="H81" s="28" t="s">
-        <v>72</v>
+      <c r="H81" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L81" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10474,35 +12835,35 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F82" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="28" t="s">
-        <v>72</v>
+      <c r="H82" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L82" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10511,20 +12872,20 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F83" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="28" t="s">
-        <v>72</v>
+      <c r="H83" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>199</v>
@@ -10539,7 +12900,7 @@
         <v>2</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10548,20 +12909,20 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F84" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="28" t="s">
-        <v>72</v>
+      <c r="H84" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>199</v>
@@ -10576,7 +12937,7 @@
         <v>2</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10585,20 +12946,20 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F85" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" s="28"/>
-      <c r="H85" s="28" t="s">
-        <v>72</v>
+      <c r="H85" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>199</v>
@@ -10613,7 +12974,7 @@
         <v>2</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10622,20 +12983,20 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F86" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G86" s="28"/>
-      <c r="H86" s="28" t="s">
-        <v>72</v>
+      <c r="H86" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>199</v>
@@ -10650,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10659,32 +13020,32 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F87" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="28" t="s">
-        <v>72</v>
+      <c r="H87" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L87" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O87" s="24" t="s">
         <v>25</v>
@@ -10696,32 +13057,32 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F88" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G88" s="28"/>
-      <c r="H88" s="28" t="s">
-        <v>72</v>
+      <c r="H88" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L88" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88" s="24" t="s">
         <v>25</v>
@@ -10733,20 +13094,20 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F89" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="28"/>
-      <c r="H89" s="28" t="s">
-        <v>72</v>
+      <c r="H89" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>199</v>
@@ -10770,16 +13131,16 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="41" t="s">
-        <v>232</v>
+      <c r="E90" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F90" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="28" t="s">
@@ -10789,13 +13150,13 @@
         <v>199</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L90" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90" s="24" t="s">
         <v>25</v>
@@ -10807,16 +13168,16 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="41" t="s">
-        <v>235</v>
+      <c r="E91" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="28" t="s">
@@ -10826,24 +13187,468 @@
         <v>199</v>
       </c>
       <c r="J91" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L91" s="14">
+        <v>1</v>
+      </c>
+      <c r="O91" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="28">
+        <v>3</v>
+      </c>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L92" s="14">
+        <v>1</v>
+      </c>
+      <c r="O92" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="28">
+        <v>4</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L93" s="14">
+        <v>1</v>
+      </c>
+      <c r="O93" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="28">
+        <v>5</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1</v>
+      </c>
+      <c r="O94" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" s="28">
+        <v>1</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L95" s="14">
+        <v>2</v>
+      </c>
+      <c r="O95" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="28">
+        <v>2</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L96" s="14">
+        <v>2</v>
+      </c>
+      <c r="O96" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="28">
+        <v>3</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L97" s="14">
+        <v>2</v>
+      </c>
+      <c r="O97" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98" s="28">
+        <v>4</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L98" s="14">
+        <v>2</v>
+      </c>
+      <c r="O98" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="28">
+        <v>5</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2</v>
+      </c>
+      <c r="O99" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" s="28">
+        <v>6</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100" s="14">
+        <v>2</v>
+      </c>
+      <c r="O100" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="28">
+        <v>1</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K91" s="24" t="s">
+      <c r="K101" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L101" s="14">
         <v>3</v>
       </c>
-      <c r="O91" s="24" t="s">
+      <c r="O101" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="28">
+        <v>2</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L102" s="14">
+        <v>3</v>
+      </c>
+      <c r="O102" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="28">
+        <v>3</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L103" s="14">
+        <v>3</v>
+      </c>
+      <c r="O103" s="24" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A20:A91 A4:A19" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A103" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B20:B91 B4:B19" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B103" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10862,7 +13667,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10933,7 +13738,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -10951,7 +13756,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -10982,7 +13787,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/566377/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E381204F-69C8-F84A-8A84-71C495A7F25D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="823" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -3581,7 +3581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -4240,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -4884,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5882,7 +5882,7 @@
         <v>267</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>123</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sivakanukollu/github/MOJ/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D881EAD-CAA8-9048-AE5E-C017AAEB6A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1860,7 +1860,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1956,7 +1956,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2413,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="C19:H25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3581,8 +3581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3738,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3873,6 +3873,21 @@
         <v>123</v>
       </c>
     </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3886,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E16:E18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4225,6 +4240,60 @@
         <v>123</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4240,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4821,23 +4890,107 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="24"/>
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
@@ -4882,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6680,6 +6833,404 @@
         <v>309</v>
       </c>
       <c r="F104" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7023,7 +7574,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8461,7 +9012,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8705,7 +9256,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8997,7 +9548,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9205,7 +9756,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9810,8 +10361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E25"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13667,7 +14218,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sivakanukollu/github/MOJ/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D881EAD-CAA8-9048-AE5E-C017AAEB6A42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDBC91C-643A-E344-B7BD-49E84E823333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6869,7 +6869,7 @@
         <v>267</v>
       </c>
       <c r="F106" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6923,7 +6923,7 @@
         <v>267</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,7 +6959,7 @@
         <v>267</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/566377/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sivakanukollu/github/MOJ/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E381204F-69C8-F84A-8A84-71C495A7F25D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDF7373-EF25-C34A-9E3B-CE9B000FACFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="823" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="19420" windowHeight="16480" tabRatio="823" firstSheet="15" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -1955,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="C19:H25"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3582,7 +3582,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3738,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3873,6 +3873,21 @@
         <v>123</v>
       </c>
     </row>
+    <row r="9" spans="1:5" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3886,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E16:E18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4225,6 +4240,60 @@
         <v>123</v>
       </c>
     </row>
+    <row r="19" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4240,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4821,23 +4890,107 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="24"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="24"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="24"/>
+    <row r="34" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
@@ -4882,10 +5035,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6680,6 +6833,397 @@
         <v>309</v>
       </c>
       <c r="F104" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C107" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C108" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C110" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C116" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C120" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -6698,8 +7242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7177,8 +7721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G24"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8705,7 +9249,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9205,7 +9749,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9810,8 +10354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E25"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13666,8 +14210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126ABC67-9A6A-D34B-A7B1-1630FC5CCD1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C49FD-B3B7-E942-8039-1E4CE10985C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="823" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,10 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">AuthorisationCaseField!$A$1:$F$111</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -787,15 +790,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>DocumentField</t>
-  </si>
-  <si>
-    <t>A `Document` field</t>
-  </si>
-  <si>
-    <t>A document</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -904,6 +898,105 @@
   </si>
   <si>
     <t>befta.citizen.2@gmail.com</t>
+  </si>
+  <si>
+    <t>DocumentField1</t>
+  </si>
+  <si>
+    <t>DocumentField2</t>
+  </si>
+  <si>
+    <t>DocumentField3</t>
+  </si>
+  <si>
+    <t>DocumentField4</t>
+  </si>
+  <si>
+    <t>DocumentField5</t>
+  </si>
+  <si>
+    <t>DocumentField6</t>
+  </si>
+  <si>
+    <t>DocumentField7</t>
+  </si>
+  <si>
+    <t>A document 1</t>
+  </si>
+  <si>
+    <t>A document 2</t>
+  </si>
+  <si>
+    <t>A document 3</t>
+  </si>
+  <si>
+    <t>A document 4</t>
+  </si>
+  <si>
+    <t>A document 5</t>
+  </si>
+  <si>
+    <t>A document 6</t>
+  </si>
+  <si>
+    <t>A document 7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>A `Document` 1 field</t>
+  </si>
+  <si>
+    <t>A `Document` 2 field</t>
+  </si>
+  <si>
+    <t>A `Document` 3 field</t>
+  </si>
+  <si>
+    <t>A `Document` 4 field</t>
+  </si>
+  <si>
+    <t>A `Document` 5 field</t>
+  </si>
+  <si>
+    <t>A `Document` 6 field</t>
+  </si>
+  <si>
+    <t>A `Document`7 field</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_1</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_2</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.1@gmail.com</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.2@gmail.com</t>
+  </si>
+  <si>
+    <t>caseworker-befta_jurisdiction_2-solicitor_3</t>
+  </si>
+  <si>
+    <t>befta.caseworker.2.solicitor.3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1405,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1431,6 +1524,10 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="26" applyFont="1"/>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1766,7 +1863,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1829,13 +1926,13 @@
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +2030,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -1951,7 +2048,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>144</v>
@@ -1969,7 +2066,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>133</v>
@@ -1987,7 +2084,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>144</v>
@@ -2018,7 +2115,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0900-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D7</xm:sqref>
         </x14:dataValidation>
@@ -2036,7 +2133,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2108,7 +2205,7 @@
       </c>
       <c r="B4" s="26"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
@@ -2126,7 +2223,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -2157,7 +2254,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0A00-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>
@@ -2172,17 +2269,17 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
@@ -2246,7 +2343,7 @@
       </c>
       <c r="B4" s="21"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>133</v>
@@ -2258,69 +2355,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23">
         <v>42736</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>42736</v>
-      </c>
+      <c r="A6" s="23"/>
       <c r="B6" s="21"/>
-      <c r="C6" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2</v>
-      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F7" xr:uid="{00000000-0002-0000-0B00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="F4:F6" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A7" xr:uid="{00000000-0002-0000-0B00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A6" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B7" xr:uid="{00000000-0002-0000-0B00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B6" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2331,9 +2399,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field id" xr:uid="{00000000-0002-0000-0B00-000004000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D7</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2346,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C35"/>
+      <selection activeCell="H19" sqref="C19:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2443,7 +2511,7 @@
       </c>
       <c r="B4" s="27"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>55</v>
@@ -2470,7 +2538,7 @@
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>55</v>
@@ -2497,7 +2565,7 @@
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>55</v>
@@ -2524,7 +2592,7 @@
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>55</v>
@@ -2551,7 +2619,7 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>55</v>
@@ -2578,7 +2646,7 @@
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>55</v>
@@ -2605,7 +2673,7 @@
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>55</v>
@@ -2632,7 +2700,7 @@
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>55</v>
@@ -2659,7 +2727,7 @@
       </c>
       <c r="B12" s="27"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>55</v>
@@ -2686,7 +2754,7 @@
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>55</v>
@@ -2713,7 +2781,7 @@
       </c>
       <c r="B14" s="27"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>55</v>
@@ -2728,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="H14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I14" s="28">
         <v>6</v>
@@ -2740,7 +2808,7 @@
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>55</v>
@@ -2767,7 +2835,7 @@
       </c>
       <c r="B16" s="27"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>55</v>
@@ -2794,7 +2862,7 @@
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>55</v>
@@ -2821,7 +2889,7 @@
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>55</v>
@@ -2848,7 +2916,7 @@
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>55</v>
@@ -2863,7 +2931,7 @@
         <v>3</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="I19" s="28">
         <v>4</v>
@@ -2875,25 +2943,25 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="G20" s="28">
+        <v>3</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I20" s="28">
         <v>4</v>
-      </c>
-      <c r="H20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="28">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2902,25 +2970,25 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G21" s="28">
-        <v>1</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>133</v>
+        <v>3</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="I21" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2929,25 +2997,25 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" s="28">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>135</v>
+        <v>3</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="I22" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,25 +3024,25 @@
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G23" s="28">
-        <v>1</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="I23" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2983,22 +3051,22 @@
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>142</v>
+        <v>283</v>
       </c>
       <c r="I24" s="28">
         <v>4</v>
@@ -3010,25 +3078,25 @@
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G25" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>144</v>
+        <v>284</v>
       </c>
       <c r="I25" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,22 +3105,22 @@
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="G26" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="I26" s="28">
         <v>1</v>
@@ -3064,25 +3132,25 @@
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G27" s="28">
-        <v>2</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>156</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="I27" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3091,25 +3159,25 @@
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D28" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G28" s="28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="28">
         <v>2</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="I28" s="28">
-        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,25 +3186,25 @@
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G29" s="28">
-        <v>2</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>154</v>
+        <v>1</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="I29" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3145,25 +3213,25 @@
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G30" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="I30" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3172,25 +3240,25 @@
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G31" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="41" t="s">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="I31" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3199,7 +3267,7 @@
       </c>
       <c r="B32" s="27"/>
       <c r="C32" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="28" t="s">
         <v>55</v>
@@ -3214,10 +3282,10 @@
         <v>2</v>
       </c>
       <c r="H32" s="41" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="I32" s="28">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3226,25 +3294,25 @@
       </c>
       <c r="B33" s="27"/>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G33" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="I33" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3253,25 +3321,25 @@
       </c>
       <c r="B34" s="27"/>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G34" s="28">
+        <v>2</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="I34" s="28">
         <v>3</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="I34" s="28">
-        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3280,25 +3348,25 @@
       </c>
       <c r="B35" s="27"/>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="G35" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="I35" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,36 +3375,198 @@
       </c>
       <c r="B36" s="27"/>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="28" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="G36" s="28">
+        <v>2</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" s="28">
+        <v>2</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G38" s="28">
+        <v>2</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="28">
+        <v>3</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G40" s="28">
+        <v>3</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="I40" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="G41" s="28">
+        <v>3</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="I41" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G42" s="28">
         <v>4</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="I36" s="28">
+      <c r="H42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="I42" s="28">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G36 I4:I36" xr:uid="{00000000-0002-0000-0C00-000001000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 0" sqref="G4:G42 I4:I42" xr:uid="{00000000-0002-0000-0C00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0C00-000002000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0C00-000002000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0C00-000000000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date after 'LiveFrom' date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0C00-000000000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3352,10 +3582,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3408,13 +3638,13 @@
         <v>42736</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>183</v>
@@ -3424,39 +3654,80 @@
       <c r="A5" s="71">
         <v>42736</v>
       </c>
+      <c r="B5" s="14"/>
       <c r="C5" s="72" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="24"/>
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="24"/>
+      <c r="C7" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{A27CCE11-3A76-8946-A93B-9CBC3432215F}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7AC3874F-BDAE-2D41-B77A-B32A5434DC31}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{7A87C9B7-5777-4145-9A50-F8A893972F50}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{977DB4FA-BE1F-B549-823A-29002CF2981B}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{350FA403-4E09-CF48-986D-AD9F992A88E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3470,10 +3741,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3536,12 +3807,12 @@
       </c>
       <c r="B4" s="24"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3551,13 +3822,73 @@
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="14" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3573,10 +3904,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3585,7 +3916,7 @@
     <col min="2" max="2" width="15.5" style="60" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" style="60" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="27" style="60" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" style="60" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="60" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="53"/>
   </cols>
@@ -3648,13 +3979,13 @@
       </c>
       <c r="B4" s="52"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="73" t="s">
         <v>123</v>
@@ -3666,13 +3997,13 @@
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="73" t="s">
         <v>123</v>
@@ -3684,13 +4015,13 @@
       </c>
       <c r="B6" s="52"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>123</v>
@@ -3702,13 +4033,13 @@
       </c>
       <c r="B7" s="52"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>270</v>
+      <c r="E7" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>123</v>
@@ -3720,13 +4051,13 @@
       </c>
       <c r="B8" s="52"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>270</v>
+      <c r="E8" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>123</v>
@@ -3738,15 +4069,231 @@
       </c>
       <c r="B9" s="52"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>270</v>
+      <c r="E9" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F9" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="58">
+        <v>42736</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B17" s="87"/>
+      <c r="C17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3763,10 +4310,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3775,7 +4322,7 @@
     <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3835,13 +4382,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -3852,13 +4399,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -3869,13 +4416,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -3886,13 +4433,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -3903,13 +4450,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -3920,13 +4467,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -3937,13 +4484,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>270</v>
+      <c r="E10" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -3954,13 +4501,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>270</v>
+      <c r="E11" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -3971,13 +4518,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>270</v>
+      <c r="E12" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -3988,13 +4535,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>270</v>
+      <c r="E13" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4005,13 +4552,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>270</v>
+      <c r="E14" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4022,17 +4569,467 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>270</v>
+      <c r="E15" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E49" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4047,10 +5044,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4077,7 +5075,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -4093,7 +5091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="32" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -4118,13 +5116,13 @@
         <v>42736</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>123</v>
@@ -4135,13 +5133,13 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>123</v>
@@ -4152,13 +5150,13 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>123</v>
@@ -4169,13 +5167,13 @@
         <v>42736</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>123</v>
@@ -4186,13 +5184,13 @@
         <v>42736</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>123</v>
@@ -4203,13 +5201,13 @@
         <v>42736</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>123</v>
@@ -4220,13 +5218,13 @@
         <v>42736</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F10" s="24" t="s">
         <v>123</v>
@@ -4237,13 +5235,13 @@
         <v>42736</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>123</v>
@@ -4254,13 +5252,13 @@
         <v>42736</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F12" s="24" t="s">
         <v>123</v>
@@ -4271,13 +5269,13 @@
         <v>42736</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>123</v>
@@ -4288,13 +5286,13 @@
         <v>42736</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>123</v>
@@ -4305,13 +5303,13 @@
         <v>42736</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>235</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F15" s="24" t="s">
         <v>123</v>
@@ -4323,13 +5321,13 @@
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F16" s="24" t="s">
         <v>123</v>
@@ -4340,31 +5338,30 @@
         <v>42736</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>223</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="71">
         <v>42736</v>
       </c>
-      <c r="B18" s="14"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>123</v>
@@ -4375,13 +5372,13 @@
         <v>42736</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>123</v>
@@ -4392,13 +5389,13 @@
         <v>42736</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F20" s="24" t="s">
         <v>123</v>
@@ -4409,13 +5406,13 @@
         <v>42736</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>270</v>
+        <v>135</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>123</v>
@@ -4426,13 +5423,13 @@
         <v>42736</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>270</v>
+        <v>137</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>123</v>
@@ -4443,30 +5440,31 @@
         <v>42736</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="71">
         <v>42736</v>
       </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>270</v>
+        <v>144</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F24" s="24" t="s">
         <v>123</v>
@@ -4477,13 +5475,13 @@
         <v>42736</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>270</v>
+        <v>148</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>123</v>
@@ -4494,13 +5492,13 @@
         <v>42736</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>270</v>
+        <v>156</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>123</v>
@@ -4511,13 +5509,13 @@
         <v>42736</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>123</v>
@@ -4528,13 +5526,13 @@
         <v>42736</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>270</v>
+        <v>154</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>123</v>
@@ -4545,13 +5543,13 @@
         <v>42736</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>270</v>
+        <v>158</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>123</v>
@@ -4562,13 +5560,13 @@
         <v>42736</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>270</v>
+        <v>168</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>123</v>
@@ -4579,13 +5577,13 @@
         <v>42736</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F31" s="24" t="s">
         <v>123</v>
@@ -4596,13 +5594,13 @@
         <v>42736</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F32" s="24" t="s">
         <v>123</v>
@@ -4613,13 +5611,13 @@
         <v>42736</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>270</v>
+        <v>223</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F33" s="24" t="s">
         <v>123</v>
@@ -4630,16 +5628,16 @@
         <v>42736</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4647,16 +5645,16 @@
         <v>42736</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>270</v>
+        <v>279</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4664,19 +5662,1612 @@
         <v>42736</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>270</v>
+        <v>280</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="F36" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F40" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E54" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D61" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D65" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F70" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F71" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D72" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D73" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E73" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F73" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E74" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E75" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F75" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E76" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E77" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F77" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F80" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F81" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F83" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E84" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F88" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F89" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D90" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F90" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F93" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E94" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E96" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F96" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E99" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F99" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E100" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F100" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E101" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D104" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E104" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F104" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="24" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F111" xr:uid="{562AAE8F-3145-EE4D-AFA6-9179B8265258}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="BEFTA_CASETYPE_2_1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -4689,10 +7280,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4702,14 +7293,14 @@
     <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="80" customWidth="1"/>
     <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="75" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>1</v>
@@ -4728,19 +7319,19 @@
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
       <c r="C2" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="82" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="82" t="s">
+      <c r="G2" s="82" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -4771,7 +7362,7 @@
         <v>42736</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>223</v>
@@ -4780,7 +7371,7 @@
         <v>213</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>123</v>
@@ -4791,7 +7382,7 @@
         <v>42736</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>223</v>
@@ -4800,7 +7391,7 @@
         <v>215</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G5" s="80" t="s">
         <v>123</v>
@@ -4811,7 +7402,7 @@
         <v>42736</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>223</v>
@@ -4820,11 +7411,212 @@
         <v>221</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G6" s="80" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="71"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="71"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4836,7 +7628,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4931,16 +7723,16 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -4952,16 +7744,16 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>116</v>
@@ -4988,10 +7780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="D4" sqref="D4:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5109,7 +7901,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -5138,7 +7930,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>135</v>
@@ -5167,7 +7959,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>137</v>
@@ -5196,7 +7988,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>142</v>
@@ -5225,7 +8017,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>144</v>
@@ -5254,7 +8046,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>148</v>
@@ -5283,7 +8075,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>156</v>
@@ -5312,7 +8104,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>239</v>
@@ -5341,7 +8133,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>154</v>
@@ -5370,7 +8162,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>158</v>
@@ -5401,7 +8193,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>168</v>
@@ -5432,7 +8224,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>232</v>
@@ -5463,7 +8255,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>223</v>
@@ -5492,7 +8284,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>235</v>
@@ -5521,19 +8313,19 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F18" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="41" t="s">
         <v>243</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="41" t="s">
-        <v>246</v>
       </c>
       <c r="H18" s="41"/>
       <c r="I18" s="28" t="s">
@@ -5550,23 +8342,21 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="G19" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="H19" s="41"/>
       <c r="I19" s="28" t="s">
         <v>25</v>
       </c>
@@ -5581,19 +8371,19 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G20" s="74" t="s">
-        <v>261</v>
+        <v>287</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>243</v>
       </c>
       <c r="H20" s="41"/>
       <c r="I20" s="28" t="s">
@@ -5610,21 +8400,21 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="41"/>
       <c r="I21" s="28" t="s">
         <v>25</v>
       </c>
@@ -5639,21 +8429,21 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="28"/>
+        <v>271</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22" s="41"/>
       <c r="I22" s="28" t="s">
         <v>25</v>
       </c>
@@ -5668,21 +8458,21 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>139</v>
+        <v>271</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>290</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H23" s="41"/>
       <c r="I23" s="28" t="s">
         <v>25</v>
       </c>
@@ -5697,21 +8487,21 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="G24" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="28"/>
+        <v>243</v>
+      </c>
+      <c r="H24" s="41"/>
       <c r="I24" s="28" t="s">
         <v>25</v>
       </c>
@@ -5726,21 +8516,23 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="28"/>
+        <v>247</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>248</v>
+      </c>
       <c r="I25" s="28" t="s">
         <v>25</v>
       </c>
@@ -5755,21 +8547,21 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>148</v>
+        <v>255</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="28"/>
+        <v>257</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H26" s="41"/>
       <c r="I26" s="28" t="s">
         <v>25</v>
       </c>
@@ -5784,19 +8576,19 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>26</v>
+        <v>272</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="28"/>
       <c r="I27" s="28" t="s">
@@ -5813,19 +8605,19 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="41" t="s">
-        <v>242</v>
+        <v>272</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="H28" s="28"/>
       <c r="I28" s="28" t="s">
@@ -5842,19 +8634,19 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="F29" s="41" t="s">
-        <v>157</v>
+        <v>272</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="G29" s="41" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="H29" s="28"/>
       <c r="I29" s="28" t="s">
@@ -5871,23 +8663,21 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F30" s="41" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>161</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="H30" s="28"/>
       <c r="I30" s="28" t="s">
         <v>25</v>
       </c>
@@ -5902,23 +8692,21 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D31" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F31" s="41" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>171</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H31" s="28"/>
       <c r="I31" s="28" t="s">
         <v>25</v>
       </c>
@@ -5933,23 +8721,21 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>234</v>
+        <v>150</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>24</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H32" s="28"/>
       <c r="I32" s="28" t="s">
         <v>25</v>
       </c>
@@ -5964,21 +8750,21 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D33" s="41" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="F33" s="41" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="41"/>
+        <v>26</v>
+      </c>
+      <c r="H33" s="28"/>
       <c r="I33" s="28" t="s">
         <v>25</v>
       </c>
@@ -5993,21 +8779,21 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>238</v>
-      </c>
-      <c r="H34" s="41"/>
+        <v>242</v>
+      </c>
+      <c r="H34" s="28"/>
       <c r="I34" s="28" t="s">
         <v>25</v>
       </c>
@@ -6022,23 +8808,21 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="E35" s="41" t="s">
-        <v>248</v>
+        <v>155</v>
       </c>
       <c r="F35" s="41" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>251</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="H35" s="28"/>
       <c r="I35" s="28" t="s">
         <v>25</v>
       </c>
@@ -6053,21 +8837,23 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>258</v>
+        <v>158</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="G36" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="H36" s="41"/>
+        <v>160</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>161</v>
+      </c>
       <c r="I36" s="28" t="s">
         <v>25</v>
       </c>
@@ -6076,12 +8862,192 @@
         <v>116</v>
       </c>
     </row>
+    <row r="37" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G38" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="13"/>
+      <c r="C39" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="H39" s="41"/>
+      <c r="I39" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B40" s="13"/>
+      <c r="C40" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>258</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A42" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B36" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B42" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -6100,7 +9066,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6282,13 +9248,13 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D12" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="41" t="s">
         <v>252</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,13 +9263,13 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>254</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6312,13 +9278,13 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D14" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>253</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -6343,7 +9309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -6636,7 +9602,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6709,7 +9675,7 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>183</v>
@@ -6728,7 +9694,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>184</v>
@@ -6747,7 +9713,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>187</v>
@@ -6766,7 +9732,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>183</v>
@@ -6785,7 +9751,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>184</v>
@@ -6804,7 +9770,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>187</v>
@@ -6844,7 +9810,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6995,7 +9961,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7024,7 +9990,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>190</v>
@@ -7061,7 +10027,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>192</v>
@@ -7098,7 +10064,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>194</v>
@@ -7135,7 +10101,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>196</v>
@@ -7172,7 +10138,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>204</v>
@@ -7209,7 +10175,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7244,7 +10210,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>190</v>
@@ -7281,7 +10247,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>192</v>
@@ -7318,7 +10284,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>194</v>
@@ -7355,7 +10321,7 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>196</v>
@@ -7392,7 +10358,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>204</v>
@@ -7447,10 +10413,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7588,7 +10554,7 @@
       </c>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="41" t="s">
         <v>188</v>
@@ -7625,7 +10591,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D5" s="41" t="s">
         <v>188</v>
@@ -7662,7 +10628,7 @@
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D6" s="41" t="s">
         <v>188</v>
@@ -7699,7 +10665,7 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D7" s="41" t="s">
         <v>188</v>
@@ -7736,7 +10702,7 @@
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>188</v>
@@ -7773,7 +10739,7 @@
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>188</v>
@@ -7810,7 +10776,7 @@
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>188</v>
@@ -7847,7 +10813,7 @@
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>188</v>
@@ -7884,7 +10850,7 @@
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>188</v>
@@ -7921,7 +10887,7 @@
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>188</v>
@@ -7958,13 +10924,13 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E14" s="41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F14" s="28">
         <v>6</v>
@@ -7995,7 +10961,7 @@
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>188</v>
@@ -8032,7 +10998,7 @@
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>188</v>
@@ -8069,7 +11035,7 @@
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="41" t="s">
         <v>188</v>
@@ -8106,7 +11072,7 @@
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>188</v>
@@ -8143,13 +11109,13 @@
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>188</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="F19" s="28">
         <v>4</v>
@@ -8180,16 +11146,16 @@
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="F20" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="41" t="s">
@@ -8199,13 +11165,13 @@
         <v>199</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L20" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O20" s="24" t="s">
         <v>72</v>
@@ -8217,16 +11183,16 @@
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>280</v>
       </c>
       <c r="F21" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="41" t="s">
@@ -8236,13 +11202,13 @@
         <v>199</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L21" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" s="24" t="s">
         <v>72</v>
@@ -8254,16 +11220,16 @@
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>281</v>
       </c>
       <c r="F22" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="41" t="s">
@@ -8273,13 +11239,13 @@
         <v>199</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L22" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O22" s="24" t="s">
         <v>72</v>
@@ -8291,13 +11257,13 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="F23" s="28">
         <v>4</v>
@@ -8310,13 +11276,13 @@
         <v>199</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L23" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" s="24" t="s">
         <v>72</v>
@@ -8328,16 +11294,16 @@
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="F24" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="41" t="s">
@@ -8347,13 +11313,13 @@
         <v>199</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L24" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="24" t="s">
         <v>72</v>
@@ -8365,16 +11331,16 @@
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>148</v>
+        <v>284</v>
       </c>
       <c r="F25" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="41" t="s">
@@ -8384,13 +11350,13 @@
         <v>199</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L25" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" s="24" t="s">
         <v>72</v>
@@ -8402,16 +11368,16 @@
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="41" t="s">
-        <v>156</v>
+      <c r="E26" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F26" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="41" t="s">
@@ -8421,13 +11387,13 @@
         <v>199</v>
       </c>
       <c r="J26" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L26" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
         <v>72</v>
@@ -8439,16 +11405,16 @@
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="41" t="s">
-        <v>239</v>
+      <c r="E27" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F27" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="41" t="s">
@@ -8458,13 +11424,13 @@
         <v>199</v>
       </c>
       <c r="J27" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L27" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
         <v>72</v>
@@ -8476,16 +11442,16 @@
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>154</v>
+      <c r="E28" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F28" s="28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="41" t="s">
@@ -8495,13 +11461,13 @@
         <v>199</v>
       </c>
       <c r="J28" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L28" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" s="24" t="s">
         <v>72</v>
@@ -8513,16 +11479,16 @@
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E29" s="41" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F29" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="41" t="s">
@@ -8532,13 +11498,13 @@
         <v>199</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L29" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" s="24" t="s">
         <v>72</v>
@@ -8550,16 +11516,16 @@
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F30" s="28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="41" t="s">
@@ -8569,13 +11535,13 @@
         <v>199</v>
       </c>
       <c r="J30" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L30" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
         <v>72</v>
@@ -8587,13 +11553,13 @@
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>223</v>
+        <v>148</v>
       </c>
       <c r="F31" s="28">
         <v>1</v>
@@ -8606,16 +11572,16 @@
         <v>199</v>
       </c>
       <c r="J31" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L31" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8624,13 +11590,13 @@
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>232</v>
+        <v>156</v>
       </c>
       <c r="F32" s="28">
         <v>2</v>
@@ -8643,16 +11609,16 @@
         <v>199</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L32" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8661,13 +11627,13 @@
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F33" s="28">
         <v>3</v>
@@ -8680,16 +11646,16 @@
         <v>199</v>
       </c>
       <c r="J33" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L33" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8698,13 +11664,13 @@
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>196</v>
       </c>
       <c r="E34" s="41" t="s">
-        <v>243</v>
+        <v>154</v>
       </c>
       <c r="F34" s="28">
         <v>4</v>
@@ -8717,13 +11683,13 @@
         <v>199</v>
       </c>
       <c r="J34" s="24" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="K34" s="24" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="L34" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O34" s="24" t="s">
         <v>72</v>
@@ -8735,35 +11701,35 @@
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D35" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>133</v>
+        <v>196</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28" t="s">
-        <v>72</v>
+      <c r="H35" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I35" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J35" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K35" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L35" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8772,35 +11738,35 @@
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="F36" s="28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28" t="s">
-        <v>72</v>
+      <c r="H36" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J36" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L36" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8809,32 +11775,32 @@
       </c>
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D37" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="F37" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28" t="s">
-        <v>72</v>
+      <c r="H37" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J37" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L37" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O37" s="24" t="s">
         <v>25</v>
@@ -8846,32 +11812,32 @@
       </c>
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D38" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E38" s="41" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="F38" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28" t="s">
-        <v>72</v>
+      <c r="H38" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I38" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J38" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K38" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L38" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O38" s="24" t="s">
         <v>25</v>
@@ -8883,32 +11849,32 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D39" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E39" s="41" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="F39" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28" t="s">
-        <v>72</v>
+      <c r="H39" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I39" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="K39" s="24" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L39" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O39" s="24" t="s">
         <v>25</v>
@@ -8920,35 +11886,35 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E40" s="41" t="s">
-        <v>148</v>
+        <v>278</v>
       </c>
       <c r="F40" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28" t="s">
-        <v>72</v>
+      <c r="H40" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I40" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J40" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L40" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8957,35 +11923,35 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E41" s="41" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="F41" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28" t="s">
-        <v>72</v>
+      <c r="H41" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I41" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J41" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K41" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L41" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8994,35 +11960,35 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D42" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="F42" s="28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28" t="s">
-        <v>72</v>
+      <c r="H42" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I42" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J42" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K42" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L42" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9031,35 +11997,35 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D43" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E43" s="41" t="s">
-        <v>154</v>
+        <v>281</v>
       </c>
       <c r="F43" s="28">
         <v>4</v>
       </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="28" t="s">
-        <v>72</v>
+      <c r="H43" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I43" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L43" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9068,35 +12034,35 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="F44" s="28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28" t="s">
-        <v>72</v>
+      <c r="H44" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I44" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J44" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K44" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L44" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9105,35 +12071,35 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="F45" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G45" s="28"/>
-      <c r="H45" s="28" t="s">
-        <v>72</v>
+      <c r="H45" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I45" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J45" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L45" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9142,20 +12108,20 @@
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="F46" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46" s="28"/>
-      <c r="H46" s="28" t="s">
-        <v>72</v>
+      <c r="H46" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I46" s="28" t="s">
         <v>199</v>
@@ -9170,7 +12136,7 @@
         <v>3</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9179,16 +12145,16 @@
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D47" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="41" t="s">
-        <v>232</v>
+      <c r="E47" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F47" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28" t="s">
@@ -9198,13 +12164,13 @@
         <v>199</v>
       </c>
       <c r="J47" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L47" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O47" s="24" t="s">
         <v>25</v>
@@ -9216,16 +12182,16 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D48" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>235</v>
+      <c r="E48" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F48" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28" t="s">
@@ -9235,13 +12201,13 @@
         <v>199</v>
       </c>
       <c r="J48" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L48" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O48" s="24" t="s">
         <v>25</v>
@@ -9253,20 +12219,20 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D49" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F49" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="41" t="s">
-        <v>25</v>
+      <c r="H49" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I49" s="28" t="s">
         <v>199</v>
@@ -9281,7 +12247,7 @@
         <v>1</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9290,20 +12256,20 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>135</v>
+        <v>204</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F50" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="41" t="s">
-        <v>25</v>
+      <c r="H50" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I50" s="28" t="s">
         <v>199</v>
@@ -9318,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9327,20 +12293,20 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>137</v>
+        <v>204</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F51" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="41" t="s">
-        <v>25</v>
+      <c r="H51" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I51" s="28" t="s">
         <v>199</v>
@@ -9355,7 +12321,7 @@
         <v>1</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9364,35 +12330,35 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D52" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F52" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="41" t="s">
-        <v>25</v>
+      <c r="H52" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I52" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J52" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K52" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L52" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9401,35 +12367,35 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D53" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F53" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="41" t="s">
-        <v>25</v>
+      <c r="H53" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I53" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K53" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L53" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9438,20 +12404,20 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F54" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="41" t="s">
-        <v>25</v>
+      <c r="H54" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I54" s="28" t="s">
         <v>199</v>
@@ -9466,7 +12432,7 @@
         <v>2</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9475,20 +12441,20 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F55" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="41" t="s">
-        <v>25</v>
+      <c r="H55" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I55" s="28" t="s">
         <v>199</v>
@@ -9503,7 +12469,7 @@
         <v>2</v>
       </c>
       <c r="O55" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9512,20 +12478,20 @@
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D56" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E56" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F56" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="41" t="s">
-        <v>25</v>
+      <c r="H56" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I56" s="28" t="s">
         <v>199</v>
@@ -9540,7 +12506,7 @@
         <v>2</v>
       </c>
       <c r="O56" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9549,20 +12515,20 @@
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D57" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F57" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="41" t="s">
-        <v>25</v>
+      <c r="H57" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I57" s="28" t="s">
         <v>199</v>
@@ -9577,7 +12543,7 @@
         <v>2</v>
       </c>
       <c r="O57" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9586,35 +12552,35 @@
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D58" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F58" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="41" t="s">
-        <v>25</v>
+      <c r="H58" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I58" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L58" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O58" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9623,35 +12589,35 @@
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D59" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="F59" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G59" s="28"/>
-      <c r="H59" s="41" t="s">
-        <v>25</v>
+      <c r="H59" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I59" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L59" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O59" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9660,35 +12626,35 @@
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D60" s="41" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="F60" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G60" s="28"/>
-      <c r="H60" s="41" t="s">
-        <v>25</v>
+      <c r="H60" s="28" t="s">
+        <v>72</v>
       </c>
       <c r="I60" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L60" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O60" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,13 +12663,13 @@
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D61" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E61" s="41" t="s">
-        <v>223</v>
+      <c r="E61" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F61" s="28">
         <v>1</v>
@@ -9716,16 +12682,16 @@
         <v>199</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L61" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O61" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9734,13 +12700,13 @@
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D62" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E62" s="41" t="s">
-        <v>232</v>
+      <c r="E62" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F62" s="28">
         <v>2</v>
@@ -9753,16 +12719,16 @@
         <v>199</v>
       </c>
       <c r="J62" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L62" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O62" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9771,13 +12737,13 @@
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D63" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E63" s="41" t="s">
-        <v>235</v>
+      <c r="E63" s="28" t="s">
+        <v>137</v>
       </c>
       <c r="F63" s="28">
         <v>3</v>
@@ -9790,16 +12756,16 @@
         <v>199</v>
       </c>
       <c r="J63" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L63" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O63" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9808,16 +12774,16 @@
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D64" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>133</v>
+        <v>188</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F64" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="41" t="s">
@@ -9845,16 +12811,16 @@
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D65" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>135</v>
+        <v>188</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F65" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" s="28"/>
       <c r="H65" s="41" t="s">
@@ -9882,16 +12848,16 @@
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D66" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>137</v>
+        <v>188</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>148</v>
       </c>
       <c r="F66" s="28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="41" t="s">
@@ -9901,13 +12867,13 @@
         <v>199</v>
       </c>
       <c r="J66" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K66" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L66" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" s="24" t="s">
         <v>72</v>
@@ -9919,16 +12885,16 @@
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D67" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F67" s="28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="28"/>
       <c r="H67" s="41" t="s">
@@ -9938,13 +12904,13 @@
         <v>199</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K67" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L67" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O67" s="24" t="s">
         <v>72</v>
@@ -9956,16 +12922,16 @@
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D68" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="F68" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="41" t="s">
@@ -9975,13 +12941,13 @@
         <v>199</v>
       </c>
       <c r="J68" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K68" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L68" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" s="24" t="s">
         <v>72</v>
@@ -9993,16 +12959,16 @@
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D69" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F69" s="28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G69" s="28"/>
       <c r="H69" s="41" t="s">
@@ -10030,16 +12996,16 @@
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D70" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F70" s="28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G70" s="28"/>
       <c r="H70" s="41" t="s">
@@ -10067,16 +13033,16 @@
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D71" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F71" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G71" s="28"/>
       <c r="H71" s="41" t="s">
@@ -10104,16 +13070,16 @@
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D72" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F72" s="28">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G72" s="28"/>
       <c r="H72" s="41" t="s">
@@ -10141,16 +13107,16 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D73" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F73" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G73" s="28"/>
       <c r="H73" s="41" t="s">
@@ -10160,16 +13126,16 @@
         <v>199</v>
       </c>
       <c r="J73" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L73" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O73" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10178,16 +13144,16 @@
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D74" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F74" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G74" s="28"/>
       <c r="H74" s="41" t="s">
@@ -10197,16 +13163,16 @@
         <v>199</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K74" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L74" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O74" s="24" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10215,16 +13181,16 @@
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D75" s="41" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F75" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="28"/>
       <c r="H75" s="41" t="s">
@@ -10252,16 +13218,16 @@
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D76" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E76" s="41" t="s">
-        <v>232</v>
+      <c r="E76" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F76" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" s="28"/>
       <c r="H76" s="41" t="s">
@@ -10271,16 +13237,16 @@
         <v>199</v>
       </c>
       <c r="J76" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K76" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L76" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10289,16 +13255,16 @@
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D77" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="E77" s="41" t="s">
-        <v>235</v>
+      <c r="E77" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F77" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77" s="28"/>
       <c r="H77" s="41" t="s">
@@ -10308,16 +13274,16 @@
         <v>199</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L77" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O77" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10326,20 +13292,20 @@
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D78" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E78" s="28" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F78" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G78" s="28"/>
-      <c r="H78" s="28" t="s">
-        <v>72</v>
+      <c r="H78" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>199</v>
@@ -10354,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="O78" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10363,20 +13329,20 @@
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D79" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>135</v>
+        <v>196</v>
+      </c>
+      <c r="E79" s="41" t="s">
+        <v>142</v>
       </c>
       <c r="F79" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79" s="28"/>
-      <c r="H79" s="28" t="s">
-        <v>72</v>
+      <c r="H79" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>199</v>
@@ -10391,7 +13357,7 @@
         <v>1</v>
       </c>
       <c r="O79" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10400,20 +13366,20 @@
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D80" s="41" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>137</v>
+        <v>196</v>
+      </c>
+      <c r="E80" s="41" t="s">
+        <v>144</v>
       </c>
       <c r="F80" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80" s="28"/>
-      <c r="H80" s="28" t="s">
-        <v>72</v>
+      <c r="H80" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>199</v>
@@ -10428,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="O80" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10437,35 +13403,35 @@
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D81" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E81" s="41" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F81" s="28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G81" s="28"/>
-      <c r="H81" s="28" t="s">
-        <v>72</v>
+      <c r="H81" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K81" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L81" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O81" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10474,35 +13440,35 @@
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D82" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E82" s="41" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="F82" s="28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" s="28"/>
-      <c r="H82" s="28" t="s">
-        <v>72</v>
+      <c r="H82" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K82" s="24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L82" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O82" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10511,20 +13477,20 @@
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D83" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E83" s="41" t="s">
-        <v>148</v>
+        <v>239</v>
       </c>
       <c r="F83" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G83" s="28"/>
-      <c r="H83" s="28" t="s">
-        <v>72</v>
+      <c r="H83" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I83" s="28" t="s">
         <v>199</v>
@@ -10539,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="O83" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10548,20 +13514,20 @@
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D84" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E84" s="41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F84" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G84" s="28"/>
-      <c r="H84" s="28" t="s">
-        <v>72</v>
+      <c r="H84" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I84" s="28" t="s">
         <v>199</v>
@@ -10576,7 +13542,7 @@
         <v>2</v>
       </c>
       <c r="O84" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10585,20 +13551,20 @@
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D85" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E85" s="41" t="s">
-        <v>239</v>
+        <v>158</v>
       </c>
       <c r="F85" s="28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" s="28"/>
-      <c r="H85" s="28" t="s">
-        <v>72</v>
+      <c r="H85" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I85" s="28" t="s">
         <v>199</v>
@@ -10613,7 +13579,7 @@
         <v>2</v>
       </c>
       <c r="O85" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10622,20 +13588,20 @@
       </c>
       <c r="B86" s="13"/>
       <c r="C86" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="F86" s="28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G86" s="28"/>
-      <c r="H86" s="28" t="s">
-        <v>72</v>
+      <c r="H86" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I86" s="28" t="s">
         <v>199</v>
@@ -10650,7 +13616,7 @@
         <v>2</v>
       </c>
       <c r="O86" s="24" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10659,32 +13625,32 @@
       </c>
       <c r="B87" s="13"/>
       <c r="C87" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D87" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E87" s="41" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="F87" s="28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G87" s="28"/>
-      <c r="H87" s="28" t="s">
-        <v>72</v>
+      <c r="H87" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I87" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J87" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K87" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L87" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O87" s="24" t="s">
         <v>25</v>
@@ -10696,32 +13662,32 @@
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D88" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E88" s="41" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="F88" s="28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G88" s="28"/>
-      <c r="H88" s="28" t="s">
-        <v>72</v>
+      <c r="H88" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I88" s="28" t="s">
         <v>199</v>
       </c>
       <c r="J88" s="24" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="K88" s="24" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="L88" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O88" s="24" t="s">
         <v>25</v>
@@ -10733,20 +13699,20 @@
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D89" s="41" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E89" s="41" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="F89" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G89" s="28"/>
-      <c r="H89" s="28" t="s">
-        <v>72</v>
+      <c r="H89" s="41" t="s">
+        <v>25</v>
       </c>
       <c r="I89" s="28" t="s">
         <v>199</v>
@@ -10770,16 +13736,16 @@
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D90" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E90" s="41" t="s">
-        <v>232</v>
+      <c r="E90" s="28" t="s">
+        <v>133</v>
       </c>
       <c r="F90" s="28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" s="28"/>
       <c r="H90" s="28" t="s">
@@ -10789,13 +13755,13 @@
         <v>199</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="K90" s="24" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="L90" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O90" s="24" t="s">
         <v>25</v>
@@ -10807,16 +13773,16 @@
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="E91" s="41" t="s">
-        <v>235</v>
+      <c r="E91" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="F91" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91" s="28"/>
       <c r="H91" s="28" t="s">
@@ -10826,24 +13792,468 @@
         <v>199</v>
       </c>
       <c r="J91" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K91" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L91" s="14">
+        <v>1</v>
+      </c>
+      <c r="O91" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F92" s="28">
+        <v>3</v>
+      </c>
+      <c r="G92" s="28"/>
+      <c r="H92" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I92" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J92" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L92" s="14">
+        <v>1</v>
+      </c>
+      <c r="O92" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="28">
+        <v>4</v>
+      </c>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I93" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J93" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K93" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L93" s="14">
+        <v>1</v>
+      </c>
+      <c r="O93" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="F94" s="28">
+        <v>5</v>
+      </c>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I94" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K94" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L94" s="14">
+        <v>1</v>
+      </c>
+      <c r="O94" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F95" s="28">
+        <v>1</v>
+      </c>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J95" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L95" s="14">
+        <v>2</v>
+      </c>
+      <c r="O95" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D96" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="28">
+        <v>2</v>
+      </c>
+      <c r="G96" s="28"/>
+      <c r="H96" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J96" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K96" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L96" s="14">
+        <v>2</v>
+      </c>
+      <c r="O96" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D97" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="F97" s="28">
+        <v>3</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J97" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K97" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L97" s="14">
+        <v>2</v>
+      </c>
+      <c r="O97" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D98" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98" s="28">
+        <v>4</v>
+      </c>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J98" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K98" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L98" s="14">
+        <v>2</v>
+      </c>
+      <c r="O98" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D99" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F99" s="28">
+        <v>5</v>
+      </c>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I99" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2</v>
+      </c>
+      <c r="O99" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D100" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F100" s="28">
+        <v>6</v>
+      </c>
+      <c r="G100" s="28"/>
+      <c r="H100" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I100" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J100" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="K100" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L100" s="14">
+        <v>2</v>
+      </c>
+      <c r="O100" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D101" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="F101" s="28">
+        <v>1</v>
+      </c>
+      <c r="G101" s="28"/>
+      <c r="H101" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I101" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J101" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K91" s="24" t="s">
+      <c r="K101" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="L91" s="14">
+      <c r="L101" s="14">
         <v>3</v>
       </c>
-      <c r="O91" s="24" t="s">
+      <c r="O101" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D102" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="F102" s="28">
+        <v>2</v>
+      </c>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I102" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J102" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L102" s="14">
+        <v>3</v>
+      </c>
+      <c r="O102" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="13">
+        <v>42736</v>
+      </c>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D103" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="28">
+        <v>3</v>
+      </c>
+      <c r="G103" s="28"/>
+      <c r="H103" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K103" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L103" s="14">
+        <v>3</v>
+      </c>
+      <c r="O103" s="24" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A20:A91 A4:A19" xr:uid="{00000000-0002-0000-0700-000001000000}">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a date on or after 01/01/2017" sqref="A4:A103" xr:uid="{00000000-0002-0000-0700-000001000000}">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B20:B91 B4:B19" xr:uid="{00000000-0002-0000-0700-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a value that after LiveFrom date" sqref="B4:B103" xr:uid="{00000000-0002-0000-0700-000002000000}">
       <formula1>IF((DATEDIF(A4,B4,"d")&gt;0),B4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10862,7 +14272,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10933,7 +14343,7 @@
       </c>
       <c r="B4" s="22"/>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>133</v>
@@ -10951,7 +14361,7 @@
       </c>
       <c r="B5" s="26"/>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>133</v>
@@ -10982,7 +14392,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid field type" xr:uid="{00000000-0002-0000-0800-000003000000}">
           <x14:formula1>
-            <xm:f>CaseField!$D$4:$D$35</xm:f>
+            <xm:f>CaseField!$D$4:$D$41</xm:f>
           </x14:formula1>
           <xm:sqref>D4:D5</xm:sqref>
         </x14:dataValidation>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/462450/IdeaProjects/ccd-data-store-api/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8E9A1-6811-7642-8743-10227809D94D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C49FD-B3B7-E942-8039-1E4CE10985C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" tabRatio="823" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,9 @@
     <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
     <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">AuthorisationCaseField!$A$1:$F$111</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="311">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -3581,8 +3584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3738,10 +3741,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3864,12 +3867,27 @@
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>267</v>
       </c>
       <c r="E8" s="24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3886,10 +3904,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E16:E18"/>
+      <selection activeCell="A19" sqref="A19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4225,6 +4243,60 @@
         <v>123</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B20" s="87"/>
+      <c r="C20" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="86">
+        <v>42736</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4240,8 +4312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4822,22 +4894,112 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E34" s="24"/>
+      <c r="A34" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="24"/>
+      <c r="A35" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="24"/>
+      <c r="A36" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E37" s="24"/>
+      <c r="A37" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E38" s="24"/>
+      <c r="A38" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E39" s="24"/>
+      <c r="A39" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E40" s="24"/>
@@ -4882,10 +5044,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:F104"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4912,7 +5075,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
@@ -4928,7 +5091,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="32" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" s="32" customFormat="1" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
@@ -5613,7 +5776,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="71">
         <v>42736</v>
       </c>
@@ -5630,7 +5793,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="71">
         <v>42736</v>
       </c>
@@ -5647,7 +5810,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="71">
         <v>42736</v>
       </c>
@@ -5664,7 +5827,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="71">
         <v>42736</v>
       </c>
@@ -5681,7 +5844,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="71">
         <v>42736</v>
       </c>
@@ -5698,7 +5861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="71">
         <v>42736</v>
       </c>
@@ -5715,7 +5878,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="71">
         <v>42736</v>
       </c>
@@ -5732,7 +5895,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="71">
         <v>42736</v>
       </c>
@@ -5749,7 +5912,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="71">
         <v>42736</v>
       </c>
@@ -5766,7 +5929,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="71">
         <v>42736</v>
       </c>
@@ -5783,7 +5946,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="71">
         <v>42736</v>
       </c>
@@ -5800,7 +5963,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="71">
         <v>42736</v>
       </c>
@@ -5817,7 +5980,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="71">
         <v>42736</v>
       </c>
@@ -5834,7 +5997,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="71">
         <v>42736</v>
       </c>
@@ -5851,7 +6014,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="71">
         <v>42736</v>
       </c>
@@ -5868,7 +6031,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="71">
         <v>42736</v>
       </c>
@@ -6683,7 +6846,428 @@
         <v>123</v>
       </c>
     </row>
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D105" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F105" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D106" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F107" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D108" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F108" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D109" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F109" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D110" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F111" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D112" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F112" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D113" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F113" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D114" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F115" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F116" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D117" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F117" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D118" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D119" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F119" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D120" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F120" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F121" s="24" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D122" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D123" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F123" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D124" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F124" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D125" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F125" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D126" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="71">
+        <v>42736</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="F127" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:F111" xr:uid="{562AAE8F-3145-EE4D-AFA6-9179B8265258}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="BEFTA_CASETYPE_2_1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -6696,10 +7280,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="144" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7012,6 +7596,27 @@
       <c r="G15" s="80" t="s">
         <v>123</v>
       </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="71"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="71"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7177,8 +7782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sivakanukollu/github/MOJ/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDBC91C-643A-E344-B7BD-49E84E823333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D7BAD3-BD1A-D046-8B2D-9A23395AD638}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5037,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6851,7 +6851,7 @@
         <v>267</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6887,7 +6887,7 @@
         <v>267</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6923,7 +6923,7 @@
         <v>267</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>123</v>
+        <v>297</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6941,7 +6941,7 @@
         <v>267</v>
       </c>
       <c r="F110" s="24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -6959,7 +6959,7 @@
         <v>267</v>
       </c>
       <c r="F111" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:6" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C49FD-B3B7-E942-8039-1E4CE10985C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35D2ED-2BE0-F64E-8701-516DA9A2AB20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -5047,8 +5047,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119:F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7113,7 +7113,7 @@
         <v>267</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7131,7 +7131,7 @@
         <v>267</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7149,7 +7149,7 @@
         <v>267</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7185,7 +7185,7 @@
         <v>267</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7203,7 +7203,7 @@
         <v>267</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7221,7 +7221,7 @@
         <v>267</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7282,7 +7282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sivakanukollu/github/MOJ/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C49FD-B3B7-E942-8039-1E4CE10985C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B71DE8-E636-1640-8018-5733A0B89AC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12900" yWindow="-21320" windowWidth="28800" windowHeight="16480" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -5047,8 +5047,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7113,7 +7113,7 @@
         <v>267</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7131,7 +7131,7 @@
         <v>267</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7149,7 +7149,7 @@
         <v>267</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7185,7 +7185,7 @@
         <v>267</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7203,7 +7203,7 @@
         <v>267</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7221,7 +7221,7 @@
         <v>267</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7282,7 +7282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0C49FD-B3B7-E942-8039-1E4CE10985C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AACA2-0136-034D-B20E-1BCD5F8E6D7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -5047,8 +5047,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119:D125"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F119" sqref="F119:F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7113,7 +7113,7 @@
         <v>267</v>
       </c>
       <c r="F119" s="24" t="s">
-        <v>123</v>
+        <v>292</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7131,7 +7131,7 @@
         <v>267</v>
       </c>
       <c r="F120" s="24" t="s">
-        <v>296</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7149,7 +7149,7 @@
         <v>267</v>
       </c>
       <c r="F121" s="24" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7185,7 +7185,7 @@
         <v>267</v>
       </c>
       <c r="F123" s="24" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7203,7 +7203,7 @@
         <v>267</v>
       </c>
       <c r="F124" s="24" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7221,7 +7221,7 @@
         <v>267</v>
       </c>
       <c r="F125" s="24" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7282,7 +7282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="144" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>

--- a/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
+++ b/src/aat/resources/CCD_BEFTA_JURISDICTION2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/475495/Documents/Home/Development/06-Jan/ccd-data-store/src/aat/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/ccd-data-store-api/src/aat/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26AACA2-0136-034D-B20E-1BCD5F8E6D7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8D42F-787B-4646-8BB5-39AF2908318E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17180" tabRatio="823" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,18 @@
     <sheet name="WorkBasketInputFields" sheetId="17" r:id="rId11"/>
     <sheet name="WorkBasketResultFields" sheetId="11" r:id="rId12"/>
     <sheet name="CaseTypeTab" sheetId="12" r:id="rId13"/>
-    <sheet name="UserProfile" sheetId="16" r:id="rId14"/>
-    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId15"/>
-    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId16"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId17"/>
-    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId18"/>
-    <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId19"/>
+    <sheet name="CaseRoles" sheetId="20" r:id="rId14"/>
+    <sheet name="UserProfile" sheetId="16" r:id="rId15"/>
+    <sheet name="AuthorisationCaseType" sheetId="13" r:id="rId16"/>
+    <sheet name="AuthorisationCaseState" sheetId="18" r:id="rId17"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="15" r:id="rId18"/>
+    <sheet name="AuthorisationCaseField" sheetId="14" r:id="rId19"/>
+    <sheet name="AuthorisationComplexType" sheetId="19" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">AuthorisationCaseField!$A$1:$F$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$1:$F$111</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="316">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -997,6 +998,21 @@
   </si>
   <si>
     <t>befta.caseworker.2.solicitor.3@gmail.com</t>
+  </si>
+  <si>
+    <t>CaseRoles</t>
+  </si>
+  <si>
+    <t>MaxLength:128</t>
+  </si>
+  <si>
+    <t>[DEFENDANT]</t>
+  </si>
+  <si>
+    <t>Defendant</t>
+  </si>
+  <si>
+    <t>The defending party</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1024,7 @@
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm&quot;/&quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1287,6 +1303,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF632523"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1320,7 +1348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1373,6 +1401,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1405,7 +1470,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1528,6 +1593,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="42" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3581,6 +3656,83 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB450B91-5B56-6749-90B2-76213C388519}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3739,7 +3891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -3902,7 +4054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -4308,7 +4460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
@@ -5042,13 +5194,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F119" sqref="F119:F125"/>
+    <sheetView topLeftCell="C83" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7275,351 +7427,6 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.6640625" style="80" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="80"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="B1" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="78" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82" t="s">
-        <v>262</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>265</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G7" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G8" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G11" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="G14" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="71">
-        <v>42736</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="E15" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="71"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7778,11 +7585,356 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FBCB2E-F376-5E45-8D3D-BA39DB091F6A}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="144" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" style="80" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="80" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="80"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:7" ht="70" x14ac:dyDescent="0.15">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G5" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G6" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G12" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="71">
+        <v>42736</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="71"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="71"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="71"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D26"/>
     </sheetView>
   </sheetViews>
